--- a/instance/zyjk/gw/upload/upload.xlsx
+++ b/instance/zyjk/gw/upload/upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/gw/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47710923-CE0E-B54C-994E-07283C520CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6FBD7E-295C-474D-96E2-3731DBC890C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29000" yWindow="500" windowWidth="30900" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30900" yWindow="500" windowWidth="30900" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="省平台上报字段对应表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="842">
   <si>
     <t>result</t>
   </si>
@@ -3079,10 +3079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE768"/>
+  <dimension ref="A1:BE607"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A279" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J286" sqref="J286"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A584" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D615" sqref="D615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -35974,4554 +35974,6 @@
       <c r="AG607" s="2"/>
       <c r="AH607" s="2"/>
     </row>
-    <row r="608" spans="1:34">
-      <c r="A608" s="7"/>
-      <c r="B608" s="7"/>
-      <c r="C608" s="8"/>
-      <c r="D608" s="8"/>
-      <c r="E608" s="7"/>
-      <c r="F608" s="7"/>
-      <c r="G608" s="7"/>
-      <c r="H608" s="7"/>
-      <c r="I608" s="8"/>
-      <c r="J608" s="8"/>
-      <c r="K608" s="7"/>
-      <c r="L608" s="7"/>
-      <c r="M608" s="7"/>
-      <c r="N608" s="7"/>
-      <c r="O608" s="8"/>
-      <c r="P608" s="8"/>
-      <c r="Q608" s="7"/>
-      <c r="R608" s="7"/>
-      <c r="S608" s="7"/>
-      <c r="T608" s="7"/>
-      <c r="U608" s="7"/>
-      <c r="V608" s="7"/>
-      <c r="W608" s="7"/>
-      <c r="X608" s="7"/>
-      <c r="Y608" s="7"/>
-      <c r="Z608" s="7"/>
-    </row>
-    <row r="609" spans="1:26">
-      <c r="A609" s="7"/>
-      <c r="B609" s="7"/>
-      <c r="C609" s="8"/>
-      <c r="D609" s="8"/>
-      <c r="E609" s="7"/>
-      <c r="F609" s="7"/>
-      <c r="G609" s="7"/>
-      <c r="H609" s="7"/>
-      <c r="I609" s="8"/>
-      <c r="J609" s="8"/>
-      <c r="K609" s="7"/>
-      <c r="L609" s="7"/>
-      <c r="M609" s="7"/>
-      <c r="N609" s="7"/>
-      <c r="O609" s="8"/>
-      <c r="P609" s="8"/>
-      <c r="Q609" s="7"/>
-      <c r="R609" s="7"/>
-      <c r="S609" s="7"/>
-      <c r="T609" s="7"/>
-      <c r="U609" s="7"/>
-      <c r="V609" s="7"/>
-      <c r="W609" s="7"/>
-      <c r="X609" s="7"/>
-      <c r="Y609" s="7"/>
-      <c r="Z609" s="7"/>
-    </row>
-    <row r="610" spans="1:26">
-      <c r="A610" s="7"/>
-      <c r="B610" s="7"/>
-      <c r="C610" s="8"/>
-      <c r="D610" s="8"/>
-      <c r="E610" s="7"/>
-      <c r="F610" s="7"/>
-      <c r="G610" s="7"/>
-      <c r="H610" s="7"/>
-      <c r="I610" s="8"/>
-      <c r="J610" s="8"/>
-      <c r="K610" s="7"/>
-      <c r="L610" s="7"/>
-      <c r="M610" s="7"/>
-      <c r="N610" s="7"/>
-      <c r="O610" s="8"/>
-      <c r="P610" s="8"/>
-      <c r="Q610" s="7"/>
-      <c r="R610" s="7"/>
-      <c r="S610" s="7"/>
-      <c r="T610" s="7"/>
-      <c r="U610" s="7"/>
-      <c r="V610" s="7"/>
-      <c r="W610" s="7"/>
-      <c r="X610" s="7"/>
-      <c r="Y610" s="7"/>
-      <c r="Z610" s="7"/>
-    </row>
-    <row r="611" spans="1:26">
-      <c r="A611" s="7"/>
-      <c r="B611" s="7"/>
-      <c r="C611" s="8"/>
-      <c r="D611" s="8"/>
-      <c r="E611" s="7"/>
-      <c r="F611" s="7"/>
-      <c r="G611" s="7"/>
-      <c r="H611" s="7"/>
-      <c r="I611" s="8"/>
-      <c r="J611" s="8"/>
-      <c r="K611" s="7"/>
-      <c r="L611" s="7"/>
-      <c r="M611" s="7"/>
-      <c r="N611" s="7"/>
-      <c r="O611" s="8"/>
-      <c r="P611" s="8"/>
-      <c r="Q611" s="7"/>
-      <c r="R611" s="7"/>
-      <c r="S611" s="7"/>
-      <c r="T611" s="7"/>
-      <c r="U611" s="7"/>
-      <c r="V611" s="7"/>
-      <c r="W611" s="7"/>
-      <c r="X611" s="7"/>
-      <c r="Y611" s="7"/>
-      <c r="Z611" s="7"/>
-    </row>
-    <row r="612" spans="1:26">
-      <c r="A612" s="7"/>
-      <c r="B612" s="7"/>
-      <c r="C612" s="8"/>
-      <c r="D612" s="8"/>
-      <c r="E612" s="7"/>
-      <c r="F612" s="7"/>
-      <c r="G612" s="7"/>
-      <c r="H612" s="7"/>
-      <c r="I612" s="8"/>
-      <c r="J612" s="8"/>
-      <c r="K612" s="7"/>
-      <c r="L612" s="7"/>
-      <c r="M612" s="7"/>
-      <c r="N612" s="7"/>
-      <c r="O612" s="8"/>
-      <c r="P612" s="8"/>
-      <c r="Q612" s="7"/>
-      <c r="R612" s="7"/>
-      <c r="S612" s="7"/>
-      <c r="T612" s="7"/>
-      <c r="U612" s="7"/>
-      <c r="V612" s="7"/>
-      <c r="W612" s="7"/>
-      <c r="X612" s="7"/>
-      <c r="Y612" s="7"/>
-      <c r="Z612" s="7"/>
-    </row>
-    <row r="613" spans="1:26">
-      <c r="A613" s="7"/>
-      <c r="B613" s="7"/>
-      <c r="C613" s="8"/>
-      <c r="D613" s="8"/>
-      <c r="E613" s="7"/>
-      <c r="F613" s="7"/>
-      <c r="G613" s="7"/>
-      <c r="H613" s="7"/>
-      <c r="I613" s="8"/>
-      <c r="J613" s="8"/>
-      <c r="K613" s="7"/>
-      <c r="L613" s="7"/>
-      <c r="M613" s="7"/>
-      <c r="N613" s="7"/>
-      <c r="O613" s="8"/>
-      <c r="P613" s="8"/>
-      <c r="Q613" s="7"/>
-      <c r="R613" s="7"/>
-      <c r="S613" s="7"/>
-      <c r="T613" s="7"/>
-      <c r="U613" s="7"/>
-      <c r="V613" s="7"/>
-      <c r="W613" s="7"/>
-      <c r="X613" s="7"/>
-      <c r="Y613" s="7"/>
-      <c r="Z613" s="7"/>
-    </row>
-    <row r="614" spans="1:26">
-      <c r="A614" s="7"/>
-      <c r="B614" s="7"/>
-      <c r="C614" s="8"/>
-      <c r="D614" s="8"/>
-      <c r="E614" s="7"/>
-      <c r="F614" s="7"/>
-      <c r="G614" s="7"/>
-      <c r="H614" s="7"/>
-      <c r="I614" s="8"/>
-      <c r="J614" s="8"/>
-      <c r="K614" s="7"/>
-      <c r="L614" s="7"/>
-      <c r="M614" s="7"/>
-      <c r="N614" s="7"/>
-      <c r="O614" s="8"/>
-      <c r="P614" s="8"/>
-      <c r="Q614" s="7"/>
-      <c r="R614" s="7"/>
-      <c r="S614" s="7"/>
-      <c r="T614" s="7"/>
-      <c r="U614" s="7"/>
-      <c r="V614" s="7"/>
-      <c r="W614" s="7"/>
-      <c r="X614" s="7"/>
-      <c r="Y614" s="7"/>
-      <c r="Z614" s="7"/>
-    </row>
-    <row r="615" spans="1:26">
-      <c r="A615" s="7"/>
-      <c r="B615" s="7"/>
-      <c r="C615" s="8"/>
-      <c r="D615" s="8"/>
-      <c r="E615" s="7"/>
-      <c r="F615" s="7"/>
-      <c r="G615" s="7"/>
-      <c r="H615" s="7"/>
-      <c r="I615" s="8"/>
-      <c r="J615" s="8"/>
-      <c r="K615" s="7"/>
-      <c r="L615" s="7"/>
-      <c r="M615" s="7"/>
-      <c r="N615" s="7"/>
-      <c r="O615" s="8"/>
-      <c r="P615" s="8"/>
-      <c r="Q615" s="7"/>
-      <c r="R615" s="7"/>
-      <c r="S615" s="7"/>
-      <c r="T615" s="7"/>
-      <c r="U615" s="7"/>
-      <c r="V615" s="7"/>
-      <c r="W615" s="7"/>
-      <c r="X615" s="7"/>
-      <c r="Y615" s="7"/>
-      <c r="Z615" s="7"/>
-    </row>
-    <row r="616" spans="1:26">
-      <c r="A616" s="7"/>
-      <c r="B616" s="7"/>
-      <c r="C616" s="8"/>
-      <c r="D616" s="8"/>
-      <c r="E616" s="7"/>
-      <c r="F616" s="7"/>
-      <c r="G616" s="7"/>
-      <c r="H616" s="7"/>
-      <c r="I616" s="8"/>
-      <c r="J616" s="8"/>
-      <c r="K616" s="7"/>
-      <c r="L616" s="7"/>
-      <c r="M616" s="7"/>
-      <c r="N616" s="7"/>
-      <c r="O616" s="8"/>
-      <c r="P616" s="8"/>
-      <c r="Q616" s="7"/>
-      <c r="R616" s="7"/>
-      <c r="S616" s="7"/>
-      <c r="T616" s="7"/>
-      <c r="U616" s="7"/>
-      <c r="V616" s="7"/>
-      <c r="W616" s="7"/>
-      <c r="X616" s="7"/>
-      <c r="Y616" s="7"/>
-      <c r="Z616" s="7"/>
-    </row>
-    <row r="617" spans="1:26">
-      <c r="A617" s="7"/>
-      <c r="B617" s="7"/>
-      <c r="C617" s="8"/>
-      <c r="D617" s="8"/>
-      <c r="E617" s="7"/>
-      <c r="F617" s="7"/>
-      <c r="G617" s="7"/>
-      <c r="H617" s="7"/>
-      <c r="I617" s="8"/>
-      <c r="J617" s="8"/>
-      <c r="K617" s="7"/>
-      <c r="L617" s="7"/>
-      <c r="M617" s="7"/>
-      <c r="N617" s="7"/>
-      <c r="O617" s="8"/>
-      <c r="P617" s="8"/>
-      <c r="Q617" s="7"/>
-      <c r="R617" s="7"/>
-      <c r="S617" s="7"/>
-      <c r="T617" s="7"/>
-      <c r="U617" s="7"/>
-      <c r="V617" s="7"/>
-      <c r="W617" s="7"/>
-      <c r="X617" s="7"/>
-      <c r="Y617" s="7"/>
-      <c r="Z617" s="7"/>
-    </row>
-    <row r="618" spans="1:26">
-      <c r="A618" s="7"/>
-      <c r="B618" s="7"/>
-      <c r="C618" s="8"/>
-      <c r="D618" s="8"/>
-      <c r="E618" s="7"/>
-      <c r="F618" s="7"/>
-      <c r="G618" s="7"/>
-      <c r="H618" s="7"/>
-      <c r="I618" s="8"/>
-      <c r="J618" s="8"/>
-      <c r="K618" s="7"/>
-      <c r="L618" s="7"/>
-      <c r="M618" s="7"/>
-      <c r="N618" s="7"/>
-      <c r="O618" s="8"/>
-      <c r="P618" s="8"/>
-      <c r="Q618" s="7"/>
-      <c r="R618" s="7"/>
-      <c r="S618" s="7"/>
-      <c r="T618" s="7"/>
-      <c r="U618" s="7"/>
-      <c r="V618" s="7"/>
-      <c r="W618" s="7"/>
-      <c r="X618" s="7"/>
-      <c r="Y618" s="7"/>
-      <c r="Z618" s="7"/>
-    </row>
-    <row r="619" spans="1:26">
-      <c r="A619" s="7"/>
-      <c r="B619" s="7"/>
-      <c r="C619" s="8"/>
-      <c r="D619" s="8"/>
-      <c r="E619" s="7"/>
-      <c r="F619" s="7"/>
-      <c r="G619" s="7"/>
-      <c r="H619" s="7"/>
-      <c r="I619" s="8"/>
-      <c r="J619" s="8"/>
-      <c r="K619" s="7"/>
-      <c r="L619" s="7"/>
-      <c r="M619" s="7"/>
-      <c r="N619" s="7"/>
-      <c r="O619" s="8"/>
-      <c r="P619" s="8"/>
-      <c r="Q619" s="7"/>
-      <c r="R619" s="7"/>
-      <c r="S619" s="7"/>
-      <c r="T619" s="7"/>
-      <c r="U619" s="7"/>
-      <c r="V619" s="7"/>
-      <c r="W619" s="7"/>
-      <c r="X619" s="7"/>
-      <c r="Y619" s="7"/>
-      <c r="Z619" s="7"/>
-    </row>
-    <row r="620" spans="1:26">
-      <c r="A620" s="7"/>
-      <c r="B620" s="7"/>
-      <c r="C620" s="8"/>
-      <c r="D620" s="8"/>
-      <c r="E620" s="7"/>
-      <c r="F620" s="7"/>
-      <c r="G620" s="7"/>
-      <c r="H620" s="7"/>
-      <c r="I620" s="8"/>
-      <c r="J620" s="8"/>
-      <c r="K620" s="7"/>
-      <c r="L620" s="7"/>
-      <c r="M620" s="7"/>
-      <c r="N620" s="7"/>
-      <c r="O620" s="8"/>
-      <c r="P620" s="8"/>
-      <c r="Q620" s="7"/>
-      <c r="R620" s="7"/>
-      <c r="S620" s="7"/>
-      <c r="T620" s="7"/>
-      <c r="U620" s="7"/>
-      <c r="V620" s="7"/>
-      <c r="W620" s="7"/>
-      <c r="X620" s="7"/>
-      <c r="Y620" s="7"/>
-      <c r="Z620" s="7"/>
-    </row>
-    <row r="621" spans="1:26">
-      <c r="A621" s="7"/>
-      <c r="B621" s="7"/>
-      <c r="C621" s="8"/>
-      <c r="D621" s="8"/>
-      <c r="E621" s="7"/>
-      <c r="F621" s="7"/>
-      <c r="G621" s="7"/>
-      <c r="H621" s="7"/>
-      <c r="I621" s="8"/>
-      <c r="J621" s="8"/>
-      <c r="K621" s="7"/>
-      <c r="L621" s="7"/>
-      <c r="M621" s="7"/>
-      <c r="N621" s="7"/>
-      <c r="O621" s="8"/>
-      <c r="P621" s="8"/>
-      <c r="Q621" s="7"/>
-      <c r="R621" s="7"/>
-      <c r="S621" s="7"/>
-      <c r="T621" s="7"/>
-      <c r="U621" s="7"/>
-      <c r="V621" s="7"/>
-      <c r="W621" s="7"/>
-      <c r="X621" s="7"/>
-      <c r="Y621" s="7"/>
-      <c r="Z621" s="7"/>
-    </row>
-    <row r="622" spans="1:26">
-      <c r="A622" s="7"/>
-      <c r="B622" s="7"/>
-      <c r="C622" s="8"/>
-      <c r="D622" s="8"/>
-      <c r="E622" s="7"/>
-      <c r="F622" s="7"/>
-      <c r="G622" s="7"/>
-      <c r="H622" s="7"/>
-      <c r="I622" s="8"/>
-      <c r="J622" s="8"/>
-      <c r="K622" s="7"/>
-      <c r="L622" s="7"/>
-      <c r="M622" s="7"/>
-      <c r="N622" s="7"/>
-      <c r="O622" s="8"/>
-      <c r="P622" s="8"/>
-      <c r="Q622" s="7"/>
-      <c r="R622" s="7"/>
-      <c r="S622" s="7"/>
-      <c r="T622" s="7"/>
-      <c r="U622" s="7"/>
-      <c r="V622" s="7"/>
-      <c r="W622" s="7"/>
-      <c r="X622" s="7"/>
-      <c r="Y622" s="7"/>
-      <c r="Z622" s="7"/>
-    </row>
-    <row r="623" spans="1:26">
-      <c r="A623" s="7"/>
-      <c r="B623" s="7"/>
-      <c r="C623" s="8"/>
-      <c r="D623" s="8"/>
-      <c r="E623" s="7"/>
-      <c r="F623" s="7"/>
-      <c r="G623" s="7"/>
-      <c r="H623" s="7"/>
-      <c r="I623" s="8"/>
-      <c r="J623" s="8"/>
-      <c r="K623" s="7"/>
-      <c r="L623" s="7"/>
-      <c r="M623" s="7"/>
-      <c r="N623" s="7"/>
-      <c r="O623" s="8"/>
-      <c r="P623" s="8"/>
-      <c r="Q623" s="7"/>
-      <c r="R623" s="7"/>
-      <c r="S623" s="7"/>
-      <c r="T623" s="7"/>
-      <c r="U623" s="7"/>
-      <c r="V623" s="7"/>
-      <c r="W623" s="7"/>
-      <c r="X623" s="7"/>
-      <c r="Y623" s="7"/>
-      <c r="Z623" s="7"/>
-    </row>
-    <row r="624" spans="1:26">
-      <c r="A624" s="7"/>
-      <c r="B624" s="7"/>
-      <c r="C624" s="8"/>
-      <c r="D624" s="8"/>
-      <c r="E624" s="7"/>
-      <c r="F624" s="7"/>
-      <c r="G624" s="7"/>
-      <c r="H624" s="7"/>
-      <c r="I624" s="8"/>
-      <c r="J624" s="8"/>
-      <c r="K624" s="7"/>
-      <c r="L624" s="7"/>
-      <c r="M624" s="7"/>
-      <c r="N624" s="7"/>
-      <c r="O624" s="8"/>
-      <c r="P624" s="8"/>
-      <c r="Q624" s="7"/>
-      <c r="R624" s="7"/>
-      <c r="S624" s="7"/>
-      <c r="T624" s="7"/>
-      <c r="U624" s="7"/>
-      <c r="V624" s="7"/>
-      <c r="W624" s="7"/>
-      <c r="X624" s="7"/>
-      <c r="Y624" s="7"/>
-      <c r="Z624" s="7"/>
-    </row>
-    <row r="625" spans="1:26">
-      <c r="A625" s="7"/>
-      <c r="B625" s="7"/>
-      <c r="C625" s="8"/>
-      <c r="D625" s="8"/>
-      <c r="E625" s="7"/>
-      <c r="F625" s="7"/>
-      <c r="G625" s="7"/>
-      <c r="H625" s="7"/>
-      <c r="I625" s="8"/>
-      <c r="J625" s="8"/>
-      <c r="K625" s="7"/>
-      <c r="L625" s="7"/>
-      <c r="M625" s="7"/>
-      <c r="N625" s="7"/>
-      <c r="O625" s="8"/>
-      <c r="P625" s="8"/>
-      <c r="Q625" s="7"/>
-      <c r="R625" s="7"/>
-      <c r="S625" s="7"/>
-      <c r="T625" s="7"/>
-      <c r="U625" s="7"/>
-      <c r="V625" s="7"/>
-      <c r="W625" s="7"/>
-      <c r="X625" s="7"/>
-      <c r="Y625" s="7"/>
-      <c r="Z625" s="7"/>
-    </row>
-    <row r="626" spans="1:26">
-      <c r="A626" s="7"/>
-      <c r="B626" s="7"/>
-      <c r="C626" s="8"/>
-      <c r="D626" s="8"/>
-      <c r="E626" s="7"/>
-      <c r="F626" s="7"/>
-      <c r="G626" s="7"/>
-      <c r="H626" s="7"/>
-      <c r="I626" s="8"/>
-      <c r="J626" s="8"/>
-      <c r="K626" s="7"/>
-      <c r="L626" s="7"/>
-      <c r="M626" s="7"/>
-      <c r="N626" s="7"/>
-      <c r="O626" s="8"/>
-      <c r="P626" s="8"/>
-      <c r="Q626" s="7"/>
-      <c r="R626" s="7"/>
-      <c r="S626" s="7"/>
-      <c r="T626" s="7"/>
-      <c r="U626" s="7"/>
-      <c r="V626" s="7"/>
-      <c r="W626" s="7"/>
-      <c r="X626" s="7"/>
-      <c r="Y626" s="7"/>
-      <c r="Z626" s="7"/>
-    </row>
-    <row r="627" spans="1:26">
-      <c r="A627" s="7"/>
-      <c r="B627" s="7"/>
-      <c r="C627" s="8"/>
-      <c r="D627" s="8"/>
-      <c r="E627" s="7"/>
-      <c r="F627" s="7"/>
-      <c r="G627" s="7"/>
-      <c r="H627" s="7"/>
-      <c r="I627" s="8"/>
-      <c r="J627" s="8"/>
-      <c r="K627" s="7"/>
-      <c r="L627" s="7"/>
-      <c r="M627" s="7"/>
-      <c r="N627" s="7"/>
-      <c r="O627" s="8"/>
-      <c r="P627" s="8"/>
-      <c r="Q627" s="7"/>
-      <c r="R627" s="7"/>
-      <c r="S627" s="7"/>
-      <c r="T627" s="7"/>
-      <c r="U627" s="7"/>
-      <c r="V627" s="7"/>
-      <c r="W627" s="7"/>
-      <c r="X627" s="7"/>
-      <c r="Y627" s="7"/>
-      <c r="Z627" s="7"/>
-    </row>
-    <row r="628" spans="1:26">
-      <c r="A628" s="7"/>
-      <c r="B628" s="7"/>
-      <c r="C628" s="8"/>
-      <c r="D628" s="8"/>
-      <c r="E628" s="7"/>
-      <c r="F628" s="7"/>
-      <c r="G628" s="7"/>
-      <c r="H628" s="7"/>
-      <c r="I628" s="8"/>
-      <c r="J628" s="8"/>
-      <c r="K628" s="7"/>
-      <c r="L628" s="7"/>
-      <c r="M628" s="7"/>
-      <c r="N628" s="7"/>
-      <c r="O628" s="8"/>
-      <c r="P628" s="8"/>
-      <c r="Q628" s="7"/>
-      <c r="R628" s="7"/>
-      <c r="S628" s="7"/>
-      <c r="T628" s="7"/>
-      <c r="U628" s="7"/>
-      <c r="V628" s="7"/>
-      <c r="W628" s="7"/>
-      <c r="X628" s="7"/>
-      <c r="Y628" s="7"/>
-      <c r="Z628" s="7"/>
-    </row>
-    <row r="629" spans="1:26">
-      <c r="A629" s="7"/>
-      <c r="B629" s="7"/>
-      <c r="C629" s="8"/>
-      <c r="D629" s="8"/>
-      <c r="E629" s="7"/>
-      <c r="F629" s="7"/>
-      <c r="G629" s="7"/>
-      <c r="H629" s="7"/>
-      <c r="I629" s="8"/>
-      <c r="J629" s="8"/>
-      <c r="K629" s="7"/>
-      <c r="L629" s="7"/>
-      <c r="M629" s="7"/>
-      <c r="N629" s="7"/>
-      <c r="O629" s="8"/>
-      <c r="P629" s="8"/>
-      <c r="Q629" s="7"/>
-      <c r="R629" s="7"/>
-      <c r="S629" s="7"/>
-      <c r="T629" s="7"/>
-      <c r="U629" s="7"/>
-      <c r="V629" s="7"/>
-      <c r="W629" s="7"/>
-      <c r="X629" s="7"/>
-      <c r="Y629" s="7"/>
-      <c r="Z629" s="7"/>
-    </row>
-    <row r="630" spans="1:26">
-      <c r="A630" s="7"/>
-      <c r="B630" s="7"/>
-      <c r="C630" s="8"/>
-      <c r="D630" s="8"/>
-      <c r="E630" s="7"/>
-      <c r="F630" s="7"/>
-      <c r="G630" s="7"/>
-      <c r="H630" s="7"/>
-      <c r="I630" s="8"/>
-      <c r="J630" s="8"/>
-      <c r="K630" s="7"/>
-      <c r="L630" s="7"/>
-      <c r="M630" s="7"/>
-      <c r="N630" s="7"/>
-      <c r="O630" s="8"/>
-      <c r="P630" s="8"/>
-      <c r="Q630" s="7"/>
-      <c r="R630" s="7"/>
-      <c r="S630" s="7"/>
-      <c r="T630" s="7"/>
-      <c r="U630" s="7"/>
-      <c r="V630" s="7"/>
-      <c r="W630" s="7"/>
-      <c r="X630" s="7"/>
-      <c r="Y630" s="7"/>
-      <c r="Z630" s="7"/>
-    </row>
-    <row r="631" spans="1:26">
-      <c r="A631" s="7"/>
-      <c r="B631" s="7"/>
-      <c r="C631" s="8"/>
-      <c r="D631" s="8"/>
-      <c r="E631" s="7"/>
-      <c r="F631" s="7"/>
-      <c r="G631" s="7"/>
-      <c r="H631" s="7"/>
-      <c r="I631" s="8"/>
-      <c r="J631" s="8"/>
-      <c r="K631" s="7"/>
-      <c r="L631" s="7"/>
-      <c r="M631" s="7"/>
-      <c r="N631" s="7"/>
-      <c r="O631" s="8"/>
-      <c r="P631" s="8"/>
-      <c r="Q631" s="7"/>
-      <c r="R631" s="7"/>
-      <c r="S631" s="7"/>
-      <c r="T631" s="7"/>
-      <c r="U631" s="7"/>
-      <c r="V631" s="7"/>
-      <c r="W631" s="7"/>
-      <c r="X631" s="7"/>
-      <c r="Y631" s="7"/>
-      <c r="Z631" s="7"/>
-    </row>
-    <row r="632" spans="1:26">
-      <c r="A632" s="7"/>
-      <c r="B632" s="7"/>
-      <c r="C632" s="8"/>
-      <c r="D632" s="8"/>
-      <c r="E632" s="7"/>
-      <c r="F632" s="7"/>
-      <c r="G632" s="7"/>
-      <c r="H632" s="7"/>
-      <c r="I632" s="8"/>
-      <c r="J632" s="8"/>
-      <c r="K632" s="7"/>
-      <c r="L632" s="7"/>
-      <c r="M632" s="7"/>
-      <c r="N632" s="7"/>
-      <c r="O632" s="8"/>
-      <c r="P632" s="8"/>
-      <c r="Q632" s="7"/>
-      <c r="R632" s="7"/>
-      <c r="S632" s="7"/>
-      <c r="T632" s="7"/>
-      <c r="U632" s="7"/>
-      <c r="V632" s="7"/>
-      <c r="W632" s="7"/>
-      <c r="X632" s="7"/>
-      <c r="Y632" s="7"/>
-      <c r="Z632" s="7"/>
-    </row>
-    <row r="633" spans="1:26">
-      <c r="A633" s="7"/>
-      <c r="B633" s="7"/>
-      <c r="C633" s="8"/>
-      <c r="D633" s="8"/>
-      <c r="E633" s="7"/>
-      <c r="F633" s="7"/>
-      <c r="G633" s="7"/>
-      <c r="H633" s="7"/>
-      <c r="I633" s="8"/>
-      <c r="J633" s="8"/>
-      <c r="K633" s="7"/>
-      <c r="L633" s="7"/>
-      <c r="M633" s="7"/>
-      <c r="N633" s="7"/>
-      <c r="O633" s="8"/>
-      <c r="P633" s="8"/>
-      <c r="Q633" s="7"/>
-      <c r="R633" s="7"/>
-      <c r="S633" s="7"/>
-      <c r="T633" s="7"/>
-      <c r="U633" s="7"/>
-      <c r="V633" s="7"/>
-      <c r="W633" s="7"/>
-      <c r="X633" s="7"/>
-      <c r="Y633" s="7"/>
-      <c r="Z633" s="7"/>
-    </row>
-    <row r="634" spans="1:26">
-      <c r="A634" s="7"/>
-      <c r="B634" s="7"/>
-      <c r="C634" s="8"/>
-      <c r="D634" s="8"/>
-      <c r="E634" s="7"/>
-      <c r="F634" s="7"/>
-      <c r="G634" s="7"/>
-      <c r="H634" s="7"/>
-      <c r="I634" s="8"/>
-      <c r="J634" s="8"/>
-      <c r="K634" s="7"/>
-      <c r="L634" s="7"/>
-      <c r="M634" s="7"/>
-      <c r="N634" s="7"/>
-      <c r="O634" s="8"/>
-      <c r="P634" s="8"/>
-      <c r="Q634" s="7"/>
-      <c r="R634" s="7"/>
-      <c r="S634" s="7"/>
-      <c r="T634" s="7"/>
-      <c r="U634" s="7"/>
-      <c r="V634" s="7"/>
-      <c r="W634" s="7"/>
-      <c r="X634" s="7"/>
-      <c r="Y634" s="7"/>
-      <c r="Z634" s="7"/>
-    </row>
-    <row r="635" spans="1:26">
-      <c r="A635" s="7"/>
-      <c r="B635" s="7"/>
-      <c r="C635" s="8"/>
-      <c r="D635" s="8"/>
-      <c r="E635" s="7"/>
-      <c r="F635" s="7"/>
-      <c r="G635" s="7"/>
-      <c r="H635" s="7"/>
-      <c r="I635" s="8"/>
-      <c r="J635" s="8"/>
-      <c r="K635" s="7"/>
-      <c r="L635" s="7"/>
-      <c r="M635" s="7"/>
-      <c r="N635" s="7"/>
-      <c r="O635" s="8"/>
-      <c r="P635" s="8"/>
-      <c r="Q635" s="7"/>
-      <c r="R635" s="7"/>
-      <c r="S635" s="7"/>
-      <c r="T635" s="7"/>
-      <c r="U635" s="7"/>
-      <c r="V635" s="7"/>
-      <c r="W635" s="7"/>
-      <c r="X635" s="7"/>
-      <c r="Y635" s="7"/>
-      <c r="Z635" s="7"/>
-    </row>
-    <row r="636" spans="1:26">
-      <c r="A636" s="7"/>
-      <c r="B636" s="7"/>
-      <c r="C636" s="8"/>
-      <c r="D636" s="8"/>
-      <c r="E636" s="7"/>
-      <c r="F636" s="7"/>
-      <c r="G636" s="7"/>
-      <c r="H636" s="7"/>
-      <c r="I636" s="8"/>
-      <c r="J636" s="8"/>
-      <c r="K636" s="7"/>
-      <c r="L636" s="7"/>
-      <c r="M636" s="7"/>
-      <c r="N636" s="7"/>
-      <c r="O636" s="8"/>
-      <c r="P636" s="8"/>
-      <c r="Q636" s="7"/>
-      <c r="R636" s="7"/>
-      <c r="S636" s="7"/>
-      <c r="T636" s="7"/>
-      <c r="U636" s="7"/>
-      <c r="V636" s="7"/>
-      <c r="W636" s="7"/>
-      <c r="X636" s="7"/>
-      <c r="Y636" s="7"/>
-      <c r="Z636" s="7"/>
-    </row>
-    <row r="637" spans="1:26">
-      <c r="A637" s="7"/>
-      <c r="B637" s="7"/>
-      <c r="C637" s="8"/>
-      <c r="D637" s="8"/>
-      <c r="E637" s="7"/>
-      <c r="F637" s="7"/>
-      <c r="G637" s="7"/>
-      <c r="H637" s="7"/>
-      <c r="I637" s="8"/>
-      <c r="J637" s="8"/>
-      <c r="K637" s="7"/>
-      <c r="L637" s="7"/>
-      <c r="M637" s="7"/>
-      <c r="N637" s="7"/>
-      <c r="O637" s="8"/>
-      <c r="P637" s="8"/>
-      <c r="Q637" s="7"/>
-      <c r="R637" s="7"/>
-      <c r="S637" s="7"/>
-      <c r="T637" s="7"/>
-      <c r="U637" s="7"/>
-      <c r="V637" s="7"/>
-      <c r="W637" s="7"/>
-      <c r="X637" s="7"/>
-      <c r="Y637" s="7"/>
-      <c r="Z637" s="7"/>
-    </row>
-    <row r="638" spans="1:26">
-      <c r="A638" s="7"/>
-      <c r="B638" s="7"/>
-      <c r="C638" s="8"/>
-      <c r="D638" s="8"/>
-      <c r="E638" s="7"/>
-      <c r="F638" s="7"/>
-      <c r="G638" s="7"/>
-      <c r="H638" s="7"/>
-      <c r="I638" s="8"/>
-      <c r="J638" s="8"/>
-      <c r="K638" s="7"/>
-      <c r="L638" s="7"/>
-      <c r="M638" s="7"/>
-      <c r="N638" s="7"/>
-      <c r="O638" s="8"/>
-      <c r="P638" s="8"/>
-      <c r="Q638" s="7"/>
-      <c r="R638" s="7"/>
-      <c r="S638" s="7"/>
-      <c r="T638" s="7"/>
-      <c r="U638" s="7"/>
-      <c r="V638" s="7"/>
-      <c r="W638" s="7"/>
-      <c r="X638" s="7"/>
-      <c r="Y638" s="7"/>
-      <c r="Z638" s="7"/>
-    </row>
-    <row r="639" spans="1:26">
-      <c r="A639" s="7"/>
-      <c r="B639" s="7"/>
-      <c r="C639" s="8"/>
-      <c r="D639" s="8"/>
-      <c r="E639" s="7"/>
-      <c r="F639" s="7"/>
-      <c r="G639" s="7"/>
-      <c r="H639" s="7"/>
-      <c r="I639" s="8"/>
-      <c r="J639" s="8"/>
-      <c r="K639" s="7"/>
-      <c r="L639" s="7"/>
-      <c r="M639" s="7"/>
-      <c r="N639" s="7"/>
-      <c r="O639" s="8"/>
-      <c r="P639" s="8"/>
-      <c r="Q639" s="7"/>
-      <c r="R639" s="7"/>
-      <c r="S639" s="7"/>
-      <c r="T639" s="7"/>
-      <c r="U639" s="7"/>
-      <c r="V639" s="7"/>
-      <c r="W639" s="7"/>
-      <c r="X639" s="7"/>
-      <c r="Y639" s="7"/>
-      <c r="Z639" s="7"/>
-    </row>
-    <row r="640" spans="1:26">
-      <c r="A640" s="7"/>
-      <c r="B640" s="7"/>
-      <c r="C640" s="8"/>
-      <c r="D640" s="8"/>
-      <c r="E640" s="7"/>
-      <c r="F640" s="7"/>
-      <c r="G640" s="7"/>
-      <c r="H640" s="7"/>
-      <c r="I640" s="8"/>
-      <c r="J640" s="8"/>
-      <c r="K640" s="7"/>
-      <c r="L640" s="7"/>
-      <c r="M640" s="7"/>
-      <c r="N640" s="7"/>
-      <c r="O640" s="8"/>
-      <c r="P640" s="8"/>
-      <c r="Q640" s="7"/>
-      <c r="R640" s="7"/>
-      <c r="S640" s="7"/>
-      <c r="T640" s="7"/>
-      <c r="U640" s="7"/>
-      <c r="V640" s="7"/>
-      <c r="W640" s="7"/>
-      <c r="X640" s="7"/>
-      <c r="Y640" s="7"/>
-      <c r="Z640" s="7"/>
-    </row>
-    <row r="641" spans="1:26">
-      <c r="A641" s="7"/>
-      <c r="B641" s="7"/>
-      <c r="C641" s="8"/>
-      <c r="D641" s="8"/>
-      <c r="E641" s="7"/>
-      <c r="F641" s="7"/>
-      <c r="G641" s="7"/>
-      <c r="H641" s="7"/>
-      <c r="I641" s="8"/>
-      <c r="J641" s="8"/>
-      <c r="K641" s="7"/>
-      <c r="L641" s="7"/>
-      <c r="M641" s="7"/>
-      <c r="N641" s="7"/>
-      <c r="O641" s="8"/>
-      <c r="P641" s="8"/>
-      <c r="Q641" s="7"/>
-      <c r="R641" s="7"/>
-      <c r="S641" s="7"/>
-      <c r="T641" s="7"/>
-      <c r="U641" s="7"/>
-      <c r="V641" s="7"/>
-      <c r="W641" s="7"/>
-      <c r="X641" s="7"/>
-      <c r="Y641" s="7"/>
-      <c r="Z641" s="7"/>
-    </row>
-    <row r="642" spans="1:26">
-      <c r="A642" s="7"/>
-      <c r="B642" s="7"/>
-      <c r="C642" s="8"/>
-      <c r="D642" s="8"/>
-      <c r="E642" s="7"/>
-      <c r="F642" s="7"/>
-      <c r="G642" s="7"/>
-      <c r="H642" s="7"/>
-      <c r="I642" s="8"/>
-      <c r="J642" s="8"/>
-      <c r="K642" s="7"/>
-      <c r="L642" s="7"/>
-      <c r="M642" s="7"/>
-      <c r="N642" s="7"/>
-      <c r="O642" s="8"/>
-      <c r="P642" s="8"/>
-      <c r="Q642" s="7"/>
-      <c r="R642" s="7"/>
-      <c r="S642" s="7"/>
-      <c r="T642" s="7"/>
-      <c r="U642" s="7"/>
-      <c r="V642" s="7"/>
-      <c r="W642" s="7"/>
-      <c r="X642" s="7"/>
-      <c r="Y642" s="7"/>
-      <c r="Z642" s="7"/>
-    </row>
-    <row r="643" spans="1:26">
-      <c r="A643" s="7"/>
-      <c r="B643" s="7"/>
-      <c r="C643" s="8"/>
-      <c r="D643" s="8"/>
-      <c r="E643" s="7"/>
-      <c r="F643" s="7"/>
-      <c r="G643" s="7"/>
-      <c r="H643" s="7"/>
-      <c r="I643" s="8"/>
-      <c r="J643" s="8"/>
-      <c r="K643" s="7"/>
-      <c r="L643" s="7"/>
-      <c r="M643" s="7"/>
-      <c r="N643" s="7"/>
-      <c r="O643" s="8"/>
-      <c r="P643" s="8"/>
-      <c r="Q643" s="7"/>
-      <c r="R643" s="7"/>
-      <c r="S643" s="7"/>
-      <c r="T643" s="7"/>
-      <c r="U643" s="7"/>
-      <c r="V643" s="7"/>
-      <c r="W643" s="7"/>
-      <c r="X643" s="7"/>
-      <c r="Y643" s="7"/>
-      <c r="Z643" s="7"/>
-    </row>
-    <row r="644" spans="1:26">
-      <c r="A644" s="7"/>
-      <c r="B644" s="7"/>
-      <c r="C644" s="8"/>
-      <c r="D644" s="8"/>
-      <c r="E644" s="7"/>
-      <c r="F644" s="7"/>
-      <c r="G644" s="7"/>
-      <c r="H644" s="7"/>
-      <c r="I644" s="8"/>
-      <c r="J644" s="8"/>
-      <c r="K644" s="7"/>
-      <c r="L644" s="7"/>
-      <c r="M644" s="7"/>
-      <c r="N644" s="7"/>
-      <c r="O644" s="8"/>
-      <c r="P644" s="8"/>
-      <c r="Q644" s="7"/>
-      <c r="R644" s="7"/>
-      <c r="S644" s="7"/>
-      <c r="T644" s="7"/>
-      <c r="U644" s="7"/>
-      <c r="V644" s="7"/>
-      <c r="W644" s="7"/>
-      <c r="X644" s="7"/>
-      <c r="Y644" s="7"/>
-      <c r="Z644" s="7"/>
-    </row>
-    <row r="645" spans="1:26">
-      <c r="A645" s="7"/>
-      <c r="B645" s="7"/>
-      <c r="C645" s="8"/>
-      <c r="D645" s="8"/>
-      <c r="E645" s="7"/>
-      <c r="F645" s="7"/>
-      <c r="G645" s="7"/>
-      <c r="H645" s="7"/>
-      <c r="I645" s="8"/>
-      <c r="J645" s="8"/>
-      <c r="K645" s="7"/>
-      <c r="L645" s="7"/>
-      <c r="M645" s="7"/>
-      <c r="N645" s="7"/>
-      <c r="O645" s="8"/>
-      <c r="P645" s="8"/>
-      <c r="Q645" s="7"/>
-      <c r="R645" s="7"/>
-      <c r="S645" s="7"/>
-      <c r="T645" s="7"/>
-      <c r="U645" s="7"/>
-      <c r="V645" s="7"/>
-      <c r="W645" s="7"/>
-      <c r="X645" s="7"/>
-      <c r="Y645" s="7"/>
-      <c r="Z645" s="7"/>
-    </row>
-    <row r="646" spans="1:26">
-      <c r="A646" s="7"/>
-      <c r="B646" s="7"/>
-      <c r="C646" s="8"/>
-      <c r="D646" s="8"/>
-      <c r="E646" s="7"/>
-      <c r="F646" s="7"/>
-      <c r="G646" s="7"/>
-      <c r="H646" s="7"/>
-      <c r="I646" s="8"/>
-      <c r="J646" s="8"/>
-      <c r="K646" s="7"/>
-      <c r="L646" s="7"/>
-      <c r="M646" s="7"/>
-      <c r="N646" s="7"/>
-      <c r="O646" s="8"/>
-      <c r="P646" s="8"/>
-      <c r="Q646" s="7"/>
-      <c r="R646" s="7"/>
-      <c r="S646" s="7"/>
-      <c r="T646" s="7"/>
-      <c r="U646" s="7"/>
-      <c r="V646" s="7"/>
-      <c r="W646" s="7"/>
-      <c r="X646" s="7"/>
-      <c r="Y646" s="7"/>
-      <c r="Z646" s="7"/>
-    </row>
-    <row r="647" spans="1:26">
-      <c r="A647" s="7"/>
-      <c r="B647" s="7"/>
-      <c r="C647" s="8"/>
-      <c r="D647" s="8"/>
-      <c r="E647" s="7"/>
-      <c r="F647" s="7"/>
-      <c r="G647" s="7"/>
-      <c r="H647" s="7"/>
-      <c r="I647" s="8"/>
-      <c r="J647" s="8"/>
-      <c r="K647" s="7"/>
-      <c r="L647" s="7"/>
-      <c r="M647" s="7"/>
-      <c r="N647" s="7"/>
-      <c r="O647" s="8"/>
-      <c r="P647" s="8"/>
-      <c r="Q647" s="7"/>
-      <c r="R647" s="7"/>
-      <c r="S647" s="7"/>
-      <c r="T647" s="7"/>
-      <c r="U647" s="7"/>
-      <c r="V647" s="7"/>
-      <c r="W647" s="7"/>
-      <c r="X647" s="7"/>
-      <c r="Y647" s="7"/>
-      <c r="Z647" s="7"/>
-    </row>
-    <row r="648" spans="1:26">
-      <c r="A648" s="7"/>
-      <c r="B648" s="7"/>
-      <c r="C648" s="8"/>
-      <c r="D648" s="8"/>
-      <c r="E648" s="7"/>
-      <c r="F648" s="7"/>
-      <c r="G648" s="7"/>
-      <c r="H648" s="7"/>
-      <c r="I648" s="8"/>
-      <c r="J648" s="8"/>
-      <c r="K648" s="7"/>
-      <c r="L648" s="7"/>
-      <c r="M648" s="7"/>
-      <c r="N648" s="7"/>
-      <c r="O648" s="8"/>
-      <c r="P648" s="8"/>
-      <c r="Q648" s="7"/>
-      <c r="R648" s="7"/>
-      <c r="S648" s="7"/>
-      <c r="T648" s="7"/>
-      <c r="U648" s="7"/>
-      <c r="V648" s="7"/>
-      <c r="W648" s="7"/>
-      <c r="X648" s="7"/>
-      <c r="Y648" s="7"/>
-      <c r="Z648" s="7"/>
-    </row>
-    <row r="649" spans="1:26">
-      <c r="A649" s="7"/>
-      <c r="B649" s="7"/>
-      <c r="C649" s="8"/>
-      <c r="D649" s="8"/>
-      <c r="E649" s="7"/>
-      <c r="F649" s="7"/>
-      <c r="G649" s="7"/>
-      <c r="H649" s="7"/>
-      <c r="I649" s="8"/>
-      <c r="J649" s="8"/>
-      <c r="K649" s="7"/>
-      <c r="L649" s="7"/>
-      <c r="M649" s="7"/>
-      <c r="N649" s="7"/>
-      <c r="O649" s="8"/>
-      <c r="P649" s="8"/>
-      <c r="Q649" s="7"/>
-      <c r="R649" s="7"/>
-      <c r="S649" s="7"/>
-      <c r="T649" s="7"/>
-      <c r="U649" s="7"/>
-      <c r="V649" s="7"/>
-      <c r="W649" s="7"/>
-      <c r="X649" s="7"/>
-      <c r="Y649" s="7"/>
-      <c r="Z649" s="7"/>
-    </row>
-    <row r="650" spans="1:26">
-      <c r="A650" s="7"/>
-      <c r="B650" s="7"/>
-      <c r="C650" s="8"/>
-      <c r="D650" s="8"/>
-      <c r="E650" s="7"/>
-      <c r="F650" s="7"/>
-      <c r="G650" s="7"/>
-      <c r="H650" s="7"/>
-      <c r="I650" s="8"/>
-      <c r="J650" s="8"/>
-      <c r="K650" s="7"/>
-      <c r="L650" s="7"/>
-      <c r="M650" s="7"/>
-      <c r="N650" s="7"/>
-      <c r="O650" s="8"/>
-      <c r="P650" s="8"/>
-      <c r="Q650" s="7"/>
-      <c r="R650" s="7"/>
-      <c r="S650" s="7"/>
-      <c r="T650" s="7"/>
-      <c r="U650" s="7"/>
-      <c r="V650" s="7"/>
-      <c r="W650" s="7"/>
-      <c r="X650" s="7"/>
-      <c r="Y650" s="7"/>
-      <c r="Z650" s="7"/>
-    </row>
-    <row r="651" spans="1:26">
-      <c r="A651" s="7"/>
-      <c r="B651" s="7"/>
-      <c r="C651" s="8"/>
-      <c r="D651" s="8"/>
-      <c r="E651" s="7"/>
-      <c r="F651" s="7"/>
-      <c r="G651" s="7"/>
-      <c r="H651" s="7"/>
-      <c r="I651" s="8"/>
-      <c r="J651" s="8"/>
-      <c r="K651" s="7"/>
-      <c r="L651" s="7"/>
-      <c r="M651" s="7"/>
-      <c r="N651" s="7"/>
-      <c r="O651" s="8"/>
-      <c r="P651" s="8"/>
-      <c r="Q651" s="7"/>
-      <c r="R651" s="7"/>
-      <c r="S651" s="7"/>
-      <c r="T651" s="7"/>
-      <c r="U651" s="7"/>
-      <c r="V651" s="7"/>
-      <c r="W651" s="7"/>
-      <c r="X651" s="7"/>
-      <c r="Y651" s="7"/>
-      <c r="Z651" s="7"/>
-    </row>
-    <row r="652" spans="1:26">
-      <c r="A652" s="7"/>
-      <c r="B652" s="7"/>
-      <c r="C652" s="8"/>
-      <c r="D652" s="8"/>
-      <c r="E652" s="7"/>
-      <c r="F652" s="7"/>
-      <c r="G652" s="7"/>
-      <c r="H652" s="7"/>
-      <c r="I652" s="8"/>
-      <c r="J652" s="8"/>
-      <c r="K652" s="7"/>
-      <c r="L652" s="7"/>
-      <c r="M652" s="7"/>
-      <c r="N652" s="7"/>
-      <c r="O652" s="8"/>
-      <c r="P652" s="8"/>
-      <c r="Q652" s="7"/>
-      <c r="R652" s="7"/>
-      <c r="S652" s="7"/>
-      <c r="T652" s="7"/>
-      <c r="U652" s="7"/>
-      <c r="V652" s="7"/>
-      <c r="W652" s="7"/>
-      <c r="X652" s="7"/>
-      <c r="Y652" s="7"/>
-      <c r="Z652" s="7"/>
-    </row>
-    <row r="653" spans="1:26">
-      <c r="A653" s="7"/>
-      <c r="B653" s="7"/>
-      <c r="C653" s="8"/>
-      <c r="D653" s="8"/>
-      <c r="E653" s="7"/>
-      <c r="F653" s="7"/>
-      <c r="G653" s="7"/>
-      <c r="H653" s="7"/>
-      <c r="I653" s="8"/>
-      <c r="J653" s="8"/>
-      <c r="K653" s="7"/>
-      <c r="L653" s="7"/>
-      <c r="M653" s="7"/>
-      <c r="N653" s="7"/>
-      <c r="O653" s="8"/>
-      <c r="P653" s="8"/>
-      <c r="Q653" s="7"/>
-      <c r="R653" s="7"/>
-      <c r="S653" s="7"/>
-      <c r="T653" s="7"/>
-      <c r="U653" s="7"/>
-      <c r="V653" s="7"/>
-      <c r="W653" s="7"/>
-      <c r="X653" s="7"/>
-      <c r="Y653" s="7"/>
-      <c r="Z653" s="7"/>
-    </row>
-    <row r="654" spans="1:26">
-      <c r="A654" s="7"/>
-      <c r="B654" s="7"/>
-      <c r="C654" s="8"/>
-      <c r="D654" s="8"/>
-      <c r="E654" s="7"/>
-      <c r="F654" s="7"/>
-      <c r="G654" s="7"/>
-      <c r="H654" s="7"/>
-      <c r="I654" s="8"/>
-      <c r="J654" s="8"/>
-      <c r="K654" s="7"/>
-      <c r="L654" s="7"/>
-      <c r="M654" s="7"/>
-      <c r="N654" s="7"/>
-      <c r="O654" s="8"/>
-      <c r="P654" s="8"/>
-      <c r="Q654" s="7"/>
-      <c r="R654" s="7"/>
-      <c r="S654" s="7"/>
-      <c r="T654" s="7"/>
-      <c r="U654" s="7"/>
-      <c r="V654" s="7"/>
-      <c r="W654" s="7"/>
-      <c r="X654" s="7"/>
-      <c r="Y654" s="7"/>
-      <c r="Z654" s="7"/>
-    </row>
-    <row r="655" spans="1:26">
-      <c r="A655" s="7"/>
-      <c r="B655" s="7"/>
-      <c r="C655" s="8"/>
-      <c r="D655" s="8"/>
-      <c r="E655" s="7"/>
-      <c r="F655" s="7"/>
-      <c r="G655" s="7"/>
-      <c r="H655" s="7"/>
-      <c r="I655" s="8"/>
-      <c r="J655" s="8"/>
-      <c r="K655" s="7"/>
-      <c r="L655" s="7"/>
-      <c r="M655" s="7"/>
-      <c r="N655" s="7"/>
-      <c r="O655" s="8"/>
-      <c r="P655" s="8"/>
-      <c r="Q655" s="7"/>
-      <c r="R655" s="7"/>
-      <c r="S655" s="7"/>
-      <c r="T655" s="7"/>
-      <c r="U655" s="7"/>
-      <c r="V655" s="7"/>
-      <c r="W655" s="7"/>
-      <c r="X655" s="7"/>
-      <c r="Y655" s="7"/>
-      <c r="Z655" s="7"/>
-    </row>
-    <row r="656" spans="1:26">
-      <c r="A656" s="7"/>
-      <c r="B656" s="7"/>
-      <c r="C656" s="8"/>
-      <c r="D656" s="8"/>
-      <c r="E656" s="7"/>
-      <c r="F656" s="7"/>
-      <c r="G656" s="7"/>
-      <c r="H656" s="7"/>
-      <c r="I656" s="8"/>
-      <c r="J656" s="8"/>
-      <c r="K656" s="7"/>
-      <c r="L656" s="7"/>
-      <c r="M656" s="7"/>
-      <c r="N656" s="7"/>
-      <c r="O656" s="8"/>
-      <c r="P656" s="8"/>
-      <c r="Q656" s="7"/>
-      <c r="R656" s="7"/>
-      <c r="S656" s="7"/>
-      <c r="T656" s="7"/>
-      <c r="U656" s="7"/>
-      <c r="V656" s="7"/>
-      <c r="W656" s="7"/>
-      <c r="X656" s="7"/>
-      <c r="Y656" s="7"/>
-      <c r="Z656" s="7"/>
-    </row>
-    <row r="657" spans="1:26">
-      <c r="A657" s="7"/>
-      <c r="B657" s="7"/>
-      <c r="C657" s="8"/>
-      <c r="D657" s="8"/>
-      <c r="E657" s="7"/>
-      <c r="F657" s="7"/>
-      <c r="G657" s="7"/>
-      <c r="H657" s="7"/>
-      <c r="I657" s="8"/>
-      <c r="J657" s="8"/>
-      <c r="K657" s="7"/>
-      <c r="L657" s="7"/>
-      <c r="M657" s="7"/>
-      <c r="N657" s="7"/>
-      <c r="O657" s="8"/>
-      <c r="P657" s="8"/>
-      <c r="Q657" s="7"/>
-      <c r="R657" s="7"/>
-      <c r="S657" s="7"/>
-      <c r="T657" s="7"/>
-      <c r="U657" s="7"/>
-      <c r="V657" s="7"/>
-      <c r="W657" s="7"/>
-      <c r="X657" s="7"/>
-      <c r="Y657" s="7"/>
-      <c r="Z657" s="7"/>
-    </row>
-    <row r="658" spans="1:26">
-      <c r="A658" s="7"/>
-      <c r="B658" s="7"/>
-      <c r="C658" s="8"/>
-      <c r="D658" s="8"/>
-      <c r="E658" s="7"/>
-      <c r="F658" s="7"/>
-      <c r="G658" s="7"/>
-      <c r="H658" s="7"/>
-      <c r="I658" s="8"/>
-      <c r="J658" s="8"/>
-      <c r="K658" s="7"/>
-      <c r="L658" s="7"/>
-      <c r="M658" s="7"/>
-      <c r="N658" s="7"/>
-      <c r="O658" s="8"/>
-      <c r="P658" s="8"/>
-      <c r="Q658" s="7"/>
-      <c r="R658" s="7"/>
-      <c r="S658" s="7"/>
-      <c r="T658" s="7"/>
-      <c r="U658" s="7"/>
-      <c r="V658" s="7"/>
-      <c r="W658" s="7"/>
-      <c r="X658" s="7"/>
-      <c r="Y658" s="7"/>
-      <c r="Z658" s="7"/>
-    </row>
-    <row r="659" spans="1:26">
-      <c r="A659" s="7"/>
-      <c r="B659" s="7"/>
-      <c r="C659" s="8"/>
-      <c r="D659" s="8"/>
-      <c r="E659" s="7"/>
-      <c r="F659" s="7"/>
-      <c r="G659" s="7"/>
-      <c r="H659" s="7"/>
-      <c r="I659" s="8"/>
-      <c r="J659" s="8"/>
-      <c r="K659" s="7"/>
-      <c r="L659" s="7"/>
-      <c r="M659" s="7"/>
-      <c r="N659" s="7"/>
-      <c r="O659" s="8"/>
-      <c r="P659" s="8"/>
-      <c r="Q659" s="7"/>
-      <c r="R659" s="7"/>
-      <c r="S659" s="7"/>
-      <c r="T659" s="7"/>
-      <c r="U659" s="7"/>
-      <c r="V659" s="7"/>
-      <c r="W659" s="7"/>
-      <c r="X659" s="7"/>
-      <c r="Y659" s="7"/>
-      <c r="Z659" s="7"/>
-    </row>
-    <row r="660" spans="1:26">
-      <c r="A660" s="7"/>
-      <c r="B660" s="7"/>
-      <c r="C660" s="8"/>
-      <c r="D660" s="8"/>
-      <c r="E660" s="7"/>
-      <c r="F660" s="7"/>
-      <c r="G660" s="7"/>
-      <c r="H660" s="7"/>
-      <c r="I660" s="8"/>
-      <c r="J660" s="8"/>
-      <c r="K660" s="7"/>
-      <c r="L660" s="7"/>
-      <c r="M660" s="7"/>
-      <c r="N660" s="7"/>
-      <c r="O660" s="8"/>
-      <c r="P660" s="8"/>
-      <c r="Q660" s="7"/>
-      <c r="R660" s="7"/>
-      <c r="S660" s="7"/>
-      <c r="T660" s="7"/>
-      <c r="U660" s="7"/>
-      <c r="V660" s="7"/>
-      <c r="W660" s="7"/>
-      <c r="X660" s="7"/>
-      <c r="Y660" s="7"/>
-      <c r="Z660" s="7"/>
-    </row>
-    <row r="661" spans="1:26">
-      <c r="A661" s="7"/>
-      <c r="B661" s="7"/>
-      <c r="C661" s="8"/>
-      <c r="D661" s="8"/>
-      <c r="E661" s="7"/>
-      <c r="F661" s="7"/>
-      <c r="G661" s="7"/>
-      <c r="H661" s="7"/>
-      <c r="I661" s="8"/>
-      <c r="J661" s="8"/>
-      <c r="K661" s="7"/>
-      <c r="L661" s="7"/>
-      <c r="M661" s="7"/>
-      <c r="N661" s="7"/>
-      <c r="O661" s="8"/>
-      <c r="P661" s="8"/>
-      <c r="Q661" s="7"/>
-      <c r="R661" s="7"/>
-      <c r="S661" s="7"/>
-      <c r="T661" s="7"/>
-      <c r="U661" s="7"/>
-      <c r="V661" s="7"/>
-      <c r="W661" s="7"/>
-      <c r="X661" s="7"/>
-      <c r="Y661" s="7"/>
-      <c r="Z661" s="7"/>
-    </row>
-    <row r="662" spans="1:26">
-      <c r="A662" s="7"/>
-      <c r="B662" s="7"/>
-      <c r="C662" s="8"/>
-      <c r="D662" s="8"/>
-      <c r="E662" s="7"/>
-      <c r="F662" s="7"/>
-      <c r="G662" s="7"/>
-      <c r="H662" s="7"/>
-      <c r="I662" s="8"/>
-      <c r="J662" s="8"/>
-      <c r="K662" s="7"/>
-      <c r="L662" s="7"/>
-      <c r="M662" s="7"/>
-      <c r="N662" s="7"/>
-      <c r="O662" s="8"/>
-      <c r="P662" s="8"/>
-      <c r="Q662" s="7"/>
-      <c r="R662" s="7"/>
-      <c r="S662" s="7"/>
-      <c r="T662" s="7"/>
-      <c r="U662" s="7"/>
-      <c r="V662" s="7"/>
-      <c r="W662" s="7"/>
-      <c r="X662" s="7"/>
-      <c r="Y662" s="7"/>
-      <c r="Z662" s="7"/>
-    </row>
-    <row r="663" spans="1:26">
-      <c r="A663" s="7"/>
-      <c r="B663" s="7"/>
-      <c r="C663" s="8"/>
-      <c r="D663" s="8"/>
-      <c r="E663" s="7"/>
-      <c r="F663" s="7"/>
-      <c r="G663" s="7"/>
-      <c r="H663" s="7"/>
-      <c r="I663" s="8"/>
-      <c r="J663" s="8"/>
-      <c r="K663" s="7"/>
-      <c r="L663" s="7"/>
-      <c r="M663" s="7"/>
-      <c r="N663" s="7"/>
-      <c r="O663" s="8"/>
-      <c r="P663" s="8"/>
-      <c r="Q663" s="7"/>
-      <c r="R663" s="7"/>
-      <c r="S663" s="7"/>
-      <c r="T663" s="7"/>
-      <c r="U663" s="7"/>
-      <c r="V663" s="7"/>
-      <c r="W663" s="7"/>
-      <c r="X663" s="7"/>
-      <c r="Y663" s="7"/>
-      <c r="Z663" s="7"/>
-    </row>
-    <row r="664" spans="1:26">
-      <c r="A664" s="7"/>
-      <c r="B664" s="7"/>
-      <c r="C664" s="8"/>
-      <c r="D664" s="8"/>
-      <c r="E664" s="7"/>
-      <c r="F664" s="7"/>
-      <c r="G664" s="7"/>
-      <c r="H664" s="7"/>
-      <c r="I664" s="8"/>
-      <c r="J664" s="8"/>
-      <c r="K664" s="7"/>
-      <c r="L664" s="7"/>
-      <c r="M664" s="7"/>
-      <c r="N664" s="7"/>
-      <c r="O664" s="8"/>
-      <c r="P664" s="8"/>
-      <c r="Q664" s="7"/>
-      <c r="R664" s="7"/>
-      <c r="S664" s="7"/>
-      <c r="T664" s="7"/>
-      <c r="U664" s="7"/>
-      <c r="V664" s="7"/>
-      <c r="W664" s="7"/>
-      <c r="X664" s="7"/>
-      <c r="Y664" s="7"/>
-      <c r="Z664" s="7"/>
-    </row>
-    <row r="665" spans="1:26">
-      <c r="A665" s="7"/>
-      <c r="B665" s="7"/>
-      <c r="C665" s="8"/>
-      <c r="D665" s="8"/>
-      <c r="E665" s="7"/>
-      <c r="F665" s="7"/>
-      <c r="G665" s="7"/>
-      <c r="H665" s="7"/>
-      <c r="I665" s="8"/>
-      <c r="J665" s="8"/>
-      <c r="K665" s="7"/>
-      <c r="L665" s="7"/>
-      <c r="M665" s="7"/>
-      <c r="N665" s="7"/>
-      <c r="O665" s="8"/>
-      <c r="P665" s="8"/>
-      <c r="Q665" s="7"/>
-      <c r="R665" s="7"/>
-      <c r="S665" s="7"/>
-      <c r="T665" s="7"/>
-      <c r="U665" s="7"/>
-      <c r="V665" s="7"/>
-      <c r="W665" s="7"/>
-      <c r="X665" s="7"/>
-      <c r="Y665" s="7"/>
-      <c r="Z665" s="7"/>
-    </row>
-    <row r="666" spans="1:26">
-      <c r="A666" s="7"/>
-      <c r="B666" s="7"/>
-      <c r="C666" s="8"/>
-      <c r="D666" s="8"/>
-      <c r="E666" s="7"/>
-      <c r="F666" s="7"/>
-      <c r="G666" s="7"/>
-      <c r="H666" s="7"/>
-      <c r="I666" s="8"/>
-      <c r="J666" s="8"/>
-      <c r="K666" s="7"/>
-      <c r="L666" s="7"/>
-      <c r="M666" s="7"/>
-      <c r="N666" s="7"/>
-      <c r="O666" s="8"/>
-      <c r="P666" s="8"/>
-      <c r="Q666" s="7"/>
-      <c r="R666" s="7"/>
-      <c r="S666" s="7"/>
-      <c r="T666" s="7"/>
-      <c r="U666" s="7"/>
-      <c r="V666" s="7"/>
-      <c r="W666" s="7"/>
-      <c r="X666" s="7"/>
-      <c r="Y666" s="7"/>
-      <c r="Z666" s="7"/>
-    </row>
-    <row r="667" spans="1:26">
-      <c r="A667" s="7"/>
-      <c r="B667" s="7"/>
-      <c r="C667" s="8"/>
-      <c r="D667" s="8"/>
-      <c r="E667" s="7"/>
-      <c r="F667" s="7"/>
-      <c r="G667" s="7"/>
-      <c r="H667" s="7"/>
-      <c r="I667" s="8"/>
-      <c r="J667" s="8"/>
-      <c r="K667" s="7"/>
-      <c r="L667" s="7"/>
-      <c r="M667" s="7"/>
-      <c r="N667" s="7"/>
-      <c r="O667" s="8"/>
-      <c r="P667" s="8"/>
-      <c r="Q667" s="7"/>
-      <c r="R667" s="7"/>
-      <c r="S667" s="7"/>
-      <c r="T667" s="7"/>
-      <c r="U667" s="7"/>
-      <c r="V667" s="7"/>
-      <c r="W667" s="7"/>
-      <c r="X667" s="7"/>
-      <c r="Y667" s="7"/>
-      <c r="Z667" s="7"/>
-    </row>
-    <row r="668" spans="1:26">
-      <c r="A668" s="7"/>
-      <c r="B668" s="7"/>
-      <c r="C668" s="8"/>
-      <c r="D668" s="8"/>
-      <c r="E668" s="7"/>
-      <c r="F668" s="7"/>
-      <c r="G668" s="7"/>
-      <c r="H668" s="7"/>
-      <c r="I668" s="8"/>
-      <c r="J668" s="8"/>
-      <c r="K668" s="7"/>
-      <c r="L668" s="7"/>
-      <c r="M668" s="7"/>
-      <c r="N668" s="7"/>
-      <c r="O668" s="8"/>
-      <c r="P668" s="8"/>
-      <c r="Q668" s="7"/>
-      <c r="R668" s="7"/>
-      <c r="S668" s="7"/>
-      <c r="T668" s="7"/>
-      <c r="U668" s="7"/>
-      <c r="V668" s="7"/>
-      <c r="W668" s="7"/>
-      <c r="X668" s="7"/>
-      <c r="Y668" s="7"/>
-      <c r="Z668" s="7"/>
-    </row>
-    <row r="669" spans="1:26">
-      <c r="A669" s="7"/>
-      <c r="B669" s="7"/>
-      <c r="C669" s="8"/>
-      <c r="D669" s="8"/>
-      <c r="E669" s="7"/>
-      <c r="F669" s="7"/>
-      <c r="G669" s="7"/>
-      <c r="H669" s="7"/>
-      <c r="I669" s="8"/>
-      <c r="J669" s="8"/>
-      <c r="K669" s="7"/>
-      <c r="L669" s="7"/>
-      <c r="M669" s="7"/>
-      <c r="N669" s="7"/>
-      <c r="O669" s="8"/>
-      <c r="P669" s="8"/>
-      <c r="Q669" s="7"/>
-      <c r="R669" s="7"/>
-      <c r="S669" s="7"/>
-      <c r="T669" s="7"/>
-      <c r="U669" s="7"/>
-      <c r="V669" s="7"/>
-      <c r="W669" s="7"/>
-      <c r="X669" s="7"/>
-      <c r="Y669" s="7"/>
-      <c r="Z669" s="7"/>
-    </row>
-    <row r="670" spans="1:26">
-      <c r="A670" s="7"/>
-      <c r="B670" s="7"/>
-      <c r="C670" s="8"/>
-      <c r="D670" s="8"/>
-      <c r="E670" s="7"/>
-      <c r="F670" s="7"/>
-      <c r="G670" s="7"/>
-      <c r="H670" s="7"/>
-      <c r="I670" s="8"/>
-      <c r="J670" s="8"/>
-      <c r="K670" s="7"/>
-      <c r="L670" s="7"/>
-      <c r="M670" s="7"/>
-      <c r="N670" s="7"/>
-      <c r="O670" s="8"/>
-      <c r="P670" s="8"/>
-      <c r="Q670" s="7"/>
-      <c r="R670" s="7"/>
-      <c r="S670" s="7"/>
-      <c r="T670" s="7"/>
-      <c r="U670" s="7"/>
-      <c r="V670" s="7"/>
-      <c r="W670" s="7"/>
-      <c r="X670" s="7"/>
-      <c r="Y670" s="7"/>
-      <c r="Z670" s="7"/>
-    </row>
-    <row r="671" spans="1:26">
-      <c r="A671" s="7"/>
-      <c r="B671" s="7"/>
-      <c r="C671" s="8"/>
-      <c r="D671" s="8"/>
-      <c r="E671" s="7"/>
-      <c r="F671" s="7"/>
-      <c r="G671" s="7"/>
-      <c r="H671" s="7"/>
-      <c r="I671" s="8"/>
-      <c r="J671" s="8"/>
-      <c r="K671" s="7"/>
-      <c r="L671" s="7"/>
-      <c r="M671" s="7"/>
-      <c r="N671" s="7"/>
-      <c r="O671" s="8"/>
-      <c r="P671" s="8"/>
-      <c r="Q671" s="7"/>
-      <c r="R671" s="7"/>
-      <c r="S671" s="7"/>
-      <c r="T671" s="7"/>
-      <c r="U671" s="7"/>
-      <c r="V671" s="7"/>
-      <c r="W671" s="7"/>
-      <c r="X671" s="7"/>
-      <c r="Y671" s="7"/>
-      <c r="Z671" s="7"/>
-    </row>
-    <row r="672" spans="1:26">
-      <c r="A672" s="7"/>
-      <c r="B672" s="7"/>
-      <c r="C672" s="8"/>
-      <c r="D672" s="8"/>
-      <c r="E672" s="7"/>
-      <c r="F672" s="7"/>
-      <c r="G672" s="7"/>
-      <c r="H672" s="7"/>
-      <c r="I672" s="8"/>
-      <c r="J672" s="8"/>
-      <c r="K672" s="7"/>
-      <c r="L672" s="7"/>
-      <c r="M672" s="7"/>
-      <c r="N672" s="7"/>
-      <c r="O672" s="8"/>
-      <c r="P672" s="8"/>
-      <c r="Q672" s="7"/>
-      <c r="R672" s="7"/>
-      <c r="S672" s="7"/>
-      <c r="T672" s="7"/>
-      <c r="U672" s="7"/>
-      <c r="V672" s="7"/>
-      <c r="W672" s="7"/>
-      <c r="X672" s="7"/>
-      <c r="Y672" s="7"/>
-      <c r="Z672" s="7"/>
-    </row>
-    <row r="673" spans="1:26">
-      <c r="A673" s="7"/>
-      <c r="B673" s="7"/>
-      <c r="C673" s="8"/>
-      <c r="D673" s="8"/>
-      <c r="E673" s="7"/>
-      <c r="F673" s="7"/>
-      <c r="G673" s="7"/>
-      <c r="H673" s="7"/>
-      <c r="I673" s="8"/>
-      <c r="J673" s="8"/>
-      <c r="K673" s="7"/>
-      <c r="L673" s="7"/>
-      <c r="M673" s="7"/>
-      <c r="N673" s="7"/>
-      <c r="O673" s="8"/>
-      <c r="P673" s="8"/>
-      <c r="Q673" s="7"/>
-      <c r="R673" s="7"/>
-      <c r="S673" s="7"/>
-      <c r="T673" s="7"/>
-      <c r="U673" s="7"/>
-      <c r="V673" s="7"/>
-      <c r="W673" s="7"/>
-      <c r="X673" s="7"/>
-      <c r="Y673" s="7"/>
-      <c r="Z673" s="7"/>
-    </row>
-    <row r="674" spans="1:26">
-      <c r="A674" s="7"/>
-      <c r="B674" s="7"/>
-      <c r="C674" s="8"/>
-      <c r="D674" s="8"/>
-      <c r="E674" s="7"/>
-      <c r="F674" s="7"/>
-      <c r="G674" s="7"/>
-      <c r="H674" s="7"/>
-      <c r="I674" s="8"/>
-      <c r="J674" s="8"/>
-      <c r="K674" s="7"/>
-      <c r="L674" s="7"/>
-      <c r="M674" s="7"/>
-      <c r="N674" s="7"/>
-      <c r="O674" s="8"/>
-      <c r="P674" s="8"/>
-      <c r="Q674" s="7"/>
-      <c r="R674" s="7"/>
-      <c r="S674" s="7"/>
-      <c r="T674" s="7"/>
-      <c r="U674" s="7"/>
-      <c r="V674" s="7"/>
-      <c r="W674" s="7"/>
-      <c r="X674" s="7"/>
-      <c r="Y674" s="7"/>
-      <c r="Z674" s="7"/>
-    </row>
-    <row r="675" spans="1:26">
-      <c r="A675" s="7"/>
-      <c r="B675" s="7"/>
-      <c r="C675" s="8"/>
-      <c r="D675" s="8"/>
-      <c r="E675" s="7"/>
-      <c r="F675" s="7"/>
-      <c r="G675" s="7"/>
-      <c r="H675" s="7"/>
-      <c r="I675" s="8"/>
-      <c r="J675" s="8"/>
-      <c r="K675" s="7"/>
-      <c r="L675" s="7"/>
-      <c r="M675" s="7"/>
-      <c r="N675" s="7"/>
-      <c r="O675" s="8"/>
-      <c r="P675" s="8"/>
-      <c r="Q675" s="7"/>
-      <c r="R675" s="7"/>
-      <c r="S675" s="7"/>
-      <c r="T675" s="7"/>
-      <c r="U675" s="7"/>
-      <c r="V675" s="7"/>
-      <c r="W675" s="7"/>
-      <c r="X675" s="7"/>
-      <c r="Y675" s="7"/>
-      <c r="Z675" s="7"/>
-    </row>
-    <row r="676" spans="1:26">
-      <c r="A676" s="7"/>
-      <c r="B676" s="7"/>
-      <c r="C676" s="8"/>
-      <c r="D676" s="8"/>
-      <c r="E676" s="7"/>
-      <c r="F676" s="7"/>
-      <c r="G676" s="7"/>
-      <c r="H676" s="7"/>
-      <c r="I676" s="8"/>
-      <c r="J676" s="8"/>
-      <c r="K676" s="7"/>
-      <c r="L676" s="7"/>
-      <c r="M676" s="7"/>
-      <c r="N676" s="7"/>
-      <c r="O676" s="8"/>
-      <c r="P676" s="8"/>
-      <c r="Q676" s="7"/>
-      <c r="R676" s="7"/>
-      <c r="S676" s="7"/>
-      <c r="T676" s="7"/>
-      <c r="U676" s="7"/>
-      <c r="V676" s="7"/>
-      <c r="W676" s="7"/>
-      <c r="X676" s="7"/>
-      <c r="Y676" s="7"/>
-      <c r="Z676" s="7"/>
-    </row>
-    <row r="677" spans="1:26">
-      <c r="A677" s="7"/>
-      <c r="B677" s="7"/>
-      <c r="C677" s="8"/>
-      <c r="D677" s="8"/>
-      <c r="E677" s="7"/>
-      <c r="F677" s="7"/>
-      <c r="G677" s="7"/>
-      <c r="H677" s="7"/>
-      <c r="I677" s="8"/>
-      <c r="J677" s="8"/>
-      <c r="K677" s="7"/>
-      <c r="L677" s="7"/>
-      <c r="M677" s="7"/>
-      <c r="N677" s="7"/>
-      <c r="O677" s="8"/>
-      <c r="P677" s="8"/>
-      <c r="Q677" s="7"/>
-      <c r="R677" s="7"/>
-      <c r="S677" s="7"/>
-      <c r="T677" s="7"/>
-      <c r="U677" s="7"/>
-      <c r="V677" s="7"/>
-      <c r="W677" s="7"/>
-      <c r="X677" s="7"/>
-      <c r="Y677" s="7"/>
-      <c r="Z677" s="7"/>
-    </row>
-    <row r="678" spans="1:26">
-      <c r="A678" s="7"/>
-      <c r="B678" s="7"/>
-      <c r="C678" s="8"/>
-      <c r="D678" s="8"/>
-      <c r="E678" s="7"/>
-      <c r="F678" s="7"/>
-      <c r="G678" s="7"/>
-      <c r="H678" s="7"/>
-      <c r="I678" s="8"/>
-      <c r="J678" s="8"/>
-      <c r="K678" s="7"/>
-      <c r="L678" s="7"/>
-      <c r="M678" s="7"/>
-      <c r="N678" s="7"/>
-      <c r="O678" s="8"/>
-      <c r="P678" s="8"/>
-      <c r="Q678" s="7"/>
-      <c r="R678" s="7"/>
-      <c r="S678" s="7"/>
-      <c r="T678" s="7"/>
-      <c r="U678" s="7"/>
-      <c r="V678" s="7"/>
-      <c r="W678" s="7"/>
-      <c r="X678" s="7"/>
-      <c r="Y678" s="7"/>
-      <c r="Z678" s="7"/>
-    </row>
-    <row r="679" spans="1:26">
-      <c r="A679" s="7"/>
-      <c r="B679" s="7"/>
-      <c r="C679" s="8"/>
-      <c r="D679" s="8"/>
-      <c r="E679" s="7"/>
-      <c r="F679" s="7"/>
-      <c r="G679" s="7"/>
-      <c r="H679" s="7"/>
-      <c r="I679" s="8"/>
-      <c r="J679" s="8"/>
-      <c r="K679" s="7"/>
-      <c r="L679" s="7"/>
-      <c r="M679" s="7"/>
-      <c r="N679" s="7"/>
-      <c r="O679" s="8"/>
-      <c r="P679" s="8"/>
-      <c r="Q679" s="7"/>
-      <c r="R679" s="7"/>
-      <c r="S679" s="7"/>
-      <c r="T679" s="7"/>
-      <c r="U679" s="7"/>
-      <c r="V679" s="7"/>
-      <c r="W679" s="7"/>
-      <c r="X679" s="7"/>
-      <c r="Y679" s="7"/>
-      <c r="Z679" s="7"/>
-    </row>
-    <row r="680" spans="1:26">
-      <c r="A680" s="7"/>
-      <c r="B680" s="7"/>
-      <c r="C680" s="8"/>
-      <c r="D680" s="8"/>
-      <c r="E680" s="7"/>
-      <c r="F680" s="7"/>
-      <c r="G680" s="7"/>
-      <c r="H680" s="7"/>
-      <c r="I680" s="8"/>
-      <c r="J680" s="8"/>
-      <c r="K680" s="7"/>
-      <c r="L680" s="7"/>
-      <c r="M680" s="7"/>
-      <c r="N680" s="7"/>
-      <c r="O680" s="8"/>
-      <c r="P680" s="8"/>
-      <c r="Q680" s="7"/>
-      <c r="R680" s="7"/>
-      <c r="S680" s="7"/>
-      <c r="T680" s="7"/>
-      <c r="U680" s="7"/>
-      <c r="V680" s="7"/>
-      <c r="W680" s="7"/>
-      <c r="X680" s="7"/>
-      <c r="Y680" s="7"/>
-      <c r="Z680" s="7"/>
-    </row>
-    <row r="681" spans="1:26">
-      <c r="A681" s="7"/>
-      <c r="B681" s="7"/>
-      <c r="C681" s="8"/>
-      <c r="D681" s="8"/>
-      <c r="E681" s="7"/>
-      <c r="F681" s="7"/>
-      <c r="G681" s="7"/>
-      <c r="H681" s="7"/>
-      <c r="I681" s="8"/>
-      <c r="J681" s="8"/>
-      <c r="K681" s="7"/>
-      <c r="L681" s="7"/>
-      <c r="M681" s="7"/>
-      <c r="N681" s="7"/>
-      <c r="O681" s="8"/>
-      <c r="P681" s="8"/>
-      <c r="Q681" s="7"/>
-      <c r="R681" s="7"/>
-      <c r="S681" s="7"/>
-      <c r="T681" s="7"/>
-      <c r="U681" s="7"/>
-      <c r="V681" s="7"/>
-      <c r="W681" s="7"/>
-      <c r="X681" s="7"/>
-      <c r="Y681" s="7"/>
-      <c r="Z681" s="7"/>
-    </row>
-    <row r="682" spans="1:26">
-      <c r="A682" s="7"/>
-      <c r="B682" s="7"/>
-      <c r="C682" s="8"/>
-      <c r="D682" s="8"/>
-      <c r="E682" s="7"/>
-      <c r="F682" s="7"/>
-      <c r="G682" s="7"/>
-      <c r="H682" s="7"/>
-      <c r="I682" s="8"/>
-      <c r="J682" s="8"/>
-      <c r="K682" s="7"/>
-      <c r="L682" s="7"/>
-      <c r="M682" s="7"/>
-      <c r="N682" s="7"/>
-      <c r="O682" s="8"/>
-      <c r="P682" s="8"/>
-      <c r="Q682" s="7"/>
-      <c r="R682" s="7"/>
-      <c r="S682" s="7"/>
-      <c r="T682" s="7"/>
-      <c r="U682" s="7"/>
-      <c r="V682" s="7"/>
-      <c r="W682" s="7"/>
-      <c r="X682" s="7"/>
-      <c r="Y682" s="7"/>
-      <c r="Z682" s="7"/>
-    </row>
-    <row r="683" spans="1:26">
-      <c r="A683" s="7"/>
-      <c r="B683" s="7"/>
-      <c r="C683" s="8"/>
-      <c r="D683" s="8"/>
-      <c r="E683" s="7"/>
-      <c r="F683" s="7"/>
-      <c r="G683" s="7"/>
-      <c r="H683" s="7"/>
-      <c r="I683" s="8"/>
-      <c r="J683" s="8"/>
-      <c r="K683" s="7"/>
-      <c r="L683" s="7"/>
-      <c r="M683" s="7"/>
-      <c r="N683" s="7"/>
-      <c r="O683" s="8"/>
-      <c r="P683" s="8"/>
-      <c r="Q683" s="7"/>
-      <c r="R683" s="7"/>
-      <c r="S683" s="7"/>
-      <c r="T683" s="7"/>
-      <c r="U683" s="7"/>
-      <c r="V683" s="7"/>
-      <c r="W683" s="7"/>
-      <c r="X683" s="7"/>
-      <c r="Y683" s="7"/>
-      <c r="Z683" s="7"/>
-    </row>
-    <row r="684" spans="1:26">
-      <c r="A684" s="7"/>
-      <c r="B684" s="7"/>
-      <c r="C684" s="8"/>
-      <c r="D684" s="8"/>
-      <c r="E684" s="7"/>
-      <c r="F684" s="7"/>
-      <c r="G684" s="7"/>
-      <c r="H684" s="7"/>
-      <c r="I684" s="8"/>
-      <c r="J684" s="8"/>
-      <c r="K684" s="7"/>
-      <c r="L684" s="7"/>
-      <c r="M684" s="7"/>
-      <c r="N684" s="7"/>
-      <c r="O684" s="8"/>
-      <c r="P684" s="8"/>
-      <c r="Q684" s="7"/>
-      <c r="R684" s="7"/>
-      <c r="S684" s="7"/>
-      <c r="T684" s="7"/>
-      <c r="U684" s="7"/>
-      <c r="V684" s="7"/>
-      <c r="W684" s="7"/>
-      <c r="X684" s="7"/>
-      <c r="Y684" s="7"/>
-      <c r="Z684" s="7"/>
-    </row>
-    <row r="685" spans="1:26">
-      <c r="A685" s="7"/>
-      <c r="B685" s="7"/>
-      <c r="C685" s="8"/>
-      <c r="D685" s="8"/>
-      <c r="E685" s="7"/>
-      <c r="F685" s="7"/>
-      <c r="G685" s="7"/>
-      <c r="H685" s="7"/>
-      <c r="I685" s="8"/>
-      <c r="J685" s="8"/>
-      <c r="K685" s="7"/>
-      <c r="L685" s="7"/>
-      <c r="M685" s="7"/>
-      <c r="N685" s="7"/>
-      <c r="O685" s="8"/>
-      <c r="P685" s="8"/>
-      <c r="Q685" s="7"/>
-      <c r="R685" s="7"/>
-      <c r="S685" s="7"/>
-      <c r="T685" s="7"/>
-      <c r="U685" s="7"/>
-      <c r="V685" s="7"/>
-      <c r="W685" s="7"/>
-      <c r="X685" s="7"/>
-      <c r="Y685" s="7"/>
-      <c r="Z685" s="7"/>
-    </row>
-    <row r="686" spans="1:26">
-      <c r="A686" s="7"/>
-      <c r="B686" s="7"/>
-      <c r="C686" s="8"/>
-      <c r="D686" s="8"/>
-      <c r="E686" s="7"/>
-      <c r="F686" s="7"/>
-      <c r="G686" s="7"/>
-      <c r="H686" s="7"/>
-      <c r="I686" s="8"/>
-      <c r="J686" s="8"/>
-      <c r="K686" s="7"/>
-      <c r="L686" s="7"/>
-      <c r="M686" s="7"/>
-      <c r="N686" s="7"/>
-      <c r="O686" s="8"/>
-      <c r="P686" s="8"/>
-      <c r="Q686" s="7"/>
-      <c r="R686" s="7"/>
-      <c r="S686" s="7"/>
-      <c r="T686" s="7"/>
-      <c r="U686" s="7"/>
-      <c r="V686" s="7"/>
-      <c r="W686" s="7"/>
-      <c r="X686" s="7"/>
-      <c r="Y686" s="7"/>
-      <c r="Z686" s="7"/>
-    </row>
-    <row r="687" spans="1:26">
-      <c r="A687" s="7"/>
-      <c r="B687" s="7"/>
-      <c r="C687" s="8"/>
-      <c r="D687" s="8"/>
-      <c r="E687" s="7"/>
-      <c r="F687" s="7"/>
-      <c r="G687" s="7"/>
-      <c r="H687" s="7"/>
-      <c r="I687" s="8"/>
-      <c r="J687" s="8"/>
-      <c r="K687" s="7"/>
-      <c r="L687" s="7"/>
-      <c r="M687" s="7"/>
-      <c r="N687" s="7"/>
-      <c r="O687" s="8"/>
-      <c r="P687" s="8"/>
-      <c r="Q687" s="7"/>
-      <c r="R687" s="7"/>
-      <c r="S687" s="7"/>
-      <c r="T687" s="7"/>
-      <c r="U687" s="7"/>
-      <c r="V687" s="7"/>
-      <c r="W687" s="7"/>
-      <c r="X687" s="7"/>
-      <c r="Y687" s="7"/>
-      <c r="Z687" s="7"/>
-    </row>
-    <row r="688" spans="1:26">
-      <c r="A688" s="7"/>
-      <c r="B688" s="7"/>
-      <c r="C688" s="8"/>
-      <c r="D688" s="8"/>
-      <c r="E688" s="7"/>
-      <c r="F688" s="7"/>
-      <c r="G688" s="7"/>
-      <c r="H688" s="7"/>
-      <c r="I688" s="8"/>
-      <c r="J688" s="8"/>
-      <c r="K688" s="7"/>
-      <c r="L688" s="7"/>
-      <c r="M688" s="7"/>
-      <c r="N688" s="7"/>
-      <c r="O688" s="8"/>
-      <c r="P688" s="8"/>
-      <c r="Q688" s="7"/>
-      <c r="R688" s="7"/>
-      <c r="S688" s="7"/>
-      <c r="T688" s="7"/>
-      <c r="U688" s="7"/>
-      <c r="V688" s="7"/>
-      <c r="W688" s="7"/>
-      <c r="X688" s="7"/>
-      <c r="Y688" s="7"/>
-      <c r="Z688" s="7"/>
-    </row>
-    <row r="689" spans="1:26">
-      <c r="A689" s="7"/>
-      <c r="B689" s="7"/>
-      <c r="C689" s="8"/>
-      <c r="D689" s="8"/>
-      <c r="E689" s="7"/>
-      <c r="F689" s="7"/>
-      <c r="G689" s="7"/>
-      <c r="H689" s="7"/>
-      <c r="I689" s="8"/>
-      <c r="J689" s="8"/>
-      <c r="K689" s="7"/>
-      <c r="L689" s="7"/>
-      <c r="M689" s="7"/>
-      <c r="N689" s="7"/>
-      <c r="O689" s="8"/>
-      <c r="P689" s="8"/>
-      <c r="Q689" s="7"/>
-      <c r="R689" s="7"/>
-      <c r="S689" s="7"/>
-      <c r="T689" s="7"/>
-      <c r="U689" s="7"/>
-      <c r="V689" s="7"/>
-      <c r="W689" s="7"/>
-      <c r="X689" s="7"/>
-      <c r="Y689" s="7"/>
-      <c r="Z689" s="7"/>
-    </row>
-    <row r="690" spans="1:26">
-      <c r="A690" s="7"/>
-      <c r="B690" s="7"/>
-      <c r="C690" s="8"/>
-      <c r="D690" s="8"/>
-      <c r="E690" s="7"/>
-      <c r="F690" s="7"/>
-      <c r="G690" s="7"/>
-      <c r="H690" s="7"/>
-      <c r="I690" s="8"/>
-      <c r="J690" s="8"/>
-      <c r="K690" s="7"/>
-      <c r="L690" s="7"/>
-      <c r="M690" s="7"/>
-      <c r="N690" s="7"/>
-      <c r="O690" s="8"/>
-      <c r="P690" s="8"/>
-      <c r="Q690" s="7"/>
-      <c r="R690" s="7"/>
-      <c r="S690" s="7"/>
-      <c r="T690" s="7"/>
-      <c r="U690" s="7"/>
-      <c r="V690" s="7"/>
-      <c r="W690" s="7"/>
-      <c r="X690" s="7"/>
-      <c r="Y690" s="7"/>
-      <c r="Z690" s="7"/>
-    </row>
-    <row r="691" spans="1:26">
-      <c r="A691" s="7"/>
-      <c r="B691" s="7"/>
-      <c r="C691" s="8"/>
-      <c r="D691" s="8"/>
-      <c r="E691" s="7"/>
-      <c r="F691" s="7"/>
-      <c r="G691" s="7"/>
-      <c r="H691" s="7"/>
-      <c r="I691" s="8"/>
-      <c r="J691" s="8"/>
-      <c r="K691" s="7"/>
-      <c r="L691" s="7"/>
-      <c r="M691" s="7"/>
-      <c r="N691" s="7"/>
-      <c r="O691" s="8"/>
-      <c r="P691" s="8"/>
-      <c r="Q691" s="7"/>
-      <c r="R691" s="7"/>
-      <c r="S691" s="7"/>
-      <c r="T691" s="7"/>
-      <c r="U691" s="7"/>
-      <c r="V691" s="7"/>
-      <c r="W691" s="7"/>
-      <c r="X691" s="7"/>
-      <c r="Y691" s="7"/>
-      <c r="Z691" s="7"/>
-    </row>
-    <row r="692" spans="1:26">
-      <c r="A692" s="7"/>
-      <c r="B692" s="7"/>
-      <c r="C692" s="8"/>
-      <c r="D692" s="8"/>
-      <c r="E692" s="7"/>
-      <c r="F692" s="7"/>
-      <c r="G692" s="7"/>
-      <c r="H692" s="7"/>
-      <c r="I692" s="8"/>
-      <c r="J692" s="8"/>
-      <c r="K692" s="7"/>
-      <c r="L692" s="7"/>
-      <c r="M692" s="7"/>
-      <c r="N692" s="7"/>
-      <c r="O692" s="8"/>
-      <c r="P692" s="8"/>
-      <c r="Q692" s="7"/>
-      <c r="R692" s="7"/>
-      <c r="S692" s="7"/>
-      <c r="T692" s="7"/>
-      <c r="U692" s="7"/>
-      <c r="V692" s="7"/>
-      <c r="W692" s="7"/>
-      <c r="X692" s="7"/>
-      <c r="Y692" s="7"/>
-      <c r="Z692" s="7"/>
-    </row>
-    <row r="693" spans="1:26">
-      <c r="A693" s="7"/>
-      <c r="B693" s="7"/>
-      <c r="C693" s="8"/>
-      <c r="D693" s="8"/>
-      <c r="E693" s="7"/>
-      <c r="F693" s="7"/>
-      <c r="G693" s="7"/>
-      <c r="H693" s="7"/>
-      <c r="I693" s="8"/>
-      <c r="J693" s="8"/>
-      <c r="K693" s="7"/>
-      <c r="L693" s="7"/>
-      <c r="M693" s="7"/>
-      <c r="N693" s="7"/>
-      <c r="O693" s="8"/>
-      <c r="P693" s="8"/>
-      <c r="Q693" s="7"/>
-      <c r="R693" s="7"/>
-      <c r="S693" s="7"/>
-      <c r="T693" s="7"/>
-      <c r="U693" s="7"/>
-      <c r="V693" s="7"/>
-      <c r="W693" s="7"/>
-      <c r="X693" s="7"/>
-      <c r="Y693" s="7"/>
-      <c r="Z693" s="7"/>
-    </row>
-    <row r="694" spans="1:26">
-      <c r="A694" s="7"/>
-      <c r="B694" s="7"/>
-      <c r="C694" s="8"/>
-      <c r="D694" s="8"/>
-      <c r="E694" s="7"/>
-      <c r="F694" s="7"/>
-      <c r="G694" s="7"/>
-      <c r="H694" s="7"/>
-      <c r="I694" s="8"/>
-      <c r="J694" s="8"/>
-      <c r="K694" s="7"/>
-      <c r="L694" s="7"/>
-      <c r="M694" s="7"/>
-      <c r="N694" s="7"/>
-      <c r="O694" s="8"/>
-      <c r="P694" s="8"/>
-      <c r="Q694" s="7"/>
-      <c r="R694" s="7"/>
-      <c r="S694" s="7"/>
-      <c r="T694" s="7"/>
-      <c r="U694" s="7"/>
-      <c r="V694" s="7"/>
-      <c r="W694" s="7"/>
-      <c r="X694" s="7"/>
-      <c r="Y694" s="7"/>
-      <c r="Z694" s="7"/>
-    </row>
-    <row r="695" spans="1:26">
-      <c r="A695" s="7"/>
-      <c r="B695" s="7"/>
-      <c r="C695" s="8"/>
-      <c r="D695" s="8"/>
-      <c r="E695" s="7"/>
-      <c r="F695" s="7"/>
-      <c r="G695" s="7"/>
-      <c r="H695" s="7"/>
-      <c r="I695" s="8"/>
-      <c r="J695" s="8"/>
-      <c r="K695" s="7"/>
-      <c r="L695" s="7"/>
-      <c r="M695" s="7"/>
-      <c r="N695" s="7"/>
-      <c r="O695" s="8"/>
-      <c r="P695" s="8"/>
-      <c r="Q695" s="7"/>
-      <c r="R695" s="7"/>
-      <c r="S695" s="7"/>
-      <c r="T695" s="7"/>
-      <c r="U695" s="7"/>
-      <c r="V695" s="7"/>
-      <c r="W695" s="7"/>
-      <c r="X695" s="7"/>
-      <c r="Y695" s="7"/>
-      <c r="Z695" s="7"/>
-    </row>
-    <row r="696" spans="1:26">
-      <c r="A696" s="7"/>
-      <c r="B696" s="7"/>
-      <c r="C696" s="8"/>
-      <c r="D696" s="8"/>
-      <c r="E696" s="7"/>
-      <c r="F696" s="7"/>
-      <c r="G696" s="7"/>
-      <c r="H696" s="7"/>
-      <c r="I696" s="8"/>
-      <c r="J696" s="8"/>
-      <c r="K696" s="7"/>
-      <c r="L696" s="7"/>
-      <c r="M696" s="7"/>
-      <c r="N696" s="7"/>
-      <c r="O696" s="8"/>
-      <c r="P696" s="8"/>
-      <c r="Q696" s="7"/>
-      <c r="R696" s="7"/>
-      <c r="S696" s="7"/>
-      <c r="T696" s="7"/>
-      <c r="U696" s="7"/>
-      <c r="V696" s="7"/>
-      <c r="W696" s="7"/>
-      <c r="X696" s="7"/>
-      <c r="Y696" s="7"/>
-      <c r="Z696" s="7"/>
-    </row>
-    <row r="697" spans="1:26">
-      <c r="A697" s="7"/>
-      <c r="B697" s="7"/>
-      <c r="C697" s="8"/>
-      <c r="D697" s="8"/>
-      <c r="E697" s="7"/>
-      <c r="F697" s="7"/>
-      <c r="G697" s="7"/>
-      <c r="H697" s="7"/>
-      <c r="I697" s="8"/>
-      <c r="J697" s="8"/>
-      <c r="K697" s="7"/>
-      <c r="L697" s="7"/>
-      <c r="M697" s="7"/>
-      <c r="N697" s="7"/>
-      <c r="O697" s="8"/>
-      <c r="P697" s="8"/>
-      <c r="Q697" s="7"/>
-      <c r="R697" s="7"/>
-      <c r="S697" s="7"/>
-      <c r="T697" s="7"/>
-      <c r="U697" s="7"/>
-      <c r="V697" s="7"/>
-      <c r="W697" s="7"/>
-      <c r="X697" s="7"/>
-      <c r="Y697" s="7"/>
-      <c r="Z697" s="7"/>
-    </row>
-    <row r="698" spans="1:26">
-      <c r="A698" s="7"/>
-      <c r="B698" s="7"/>
-      <c r="C698" s="8"/>
-      <c r="D698" s="8"/>
-      <c r="E698" s="7"/>
-      <c r="F698" s="7"/>
-      <c r="G698" s="7"/>
-      <c r="H698" s="7"/>
-      <c r="I698" s="8"/>
-      <c r="J698" s="8"/>
-      <c r="K698" s="7"/>
-      <c r="L698" s="7"/>
-      <c r="M698" s="7"/>
-      <c r="N698" s="7"/>
-      <c r="O698" s="8"/>
-      <c r="P698" s="8"/>
-      <c r="Q698" s="7"/>
-      <c r="R698" s="7"/>
-      <c r="S698" s="7"/>
-      <c r="T698" s="7"/>
-      <c r="U698" s="7"/>
-      <c r="V698" s="7"/>
-      <c r="W698" s="7"/>
-      <c r="X698" s="7"/>
-      <c r="Y698" s="7"/>
-      <c r="Z698" s="7"/>
-    </row>
-    <row r="699" spans="1:26">
-      <c r="A699" s="7"/>
-      <c r="B699" s="7"/>
-      <c r="C699" s="8"/>
-      <c r="D699" s="8"/>
-      <c r="E699" s="7"/>
-      <c r="F699" s="7"/>
-      <c r="G699" s="7"/>
-      <c r="H699" s="7"/>
-      <c r="I699" s="8"/>
-      <c r="J699" s="8"/>
-      <c r="K699" s="7"/>
-      <c r="L699" s="7"/>
-      <c r="M699" s="7"/>
-      <c r="N699" s="7"/>
-      <c r="O699" s="8"/>
-      <c r="P699" s="8"/>
-      <c r="Q699" s="7"/>
-      <c r="R699" s="7"/>
-      <c r="S699" s="7"/>
-      <c r="T699" s="7"/>
-      <c r="U699" s="7"/>
-      <c r="V699" s="7"/>
-      <c r="W699" s="7"/>
-      <c r="X699" s="7"/>
-      <c r="Y699" s="7"/>
-      <c r="Z699" s="7"/>
-    </row>
-    <row r="700" spans="1:26">
-      <c r="A700" s="7"/>
-      <c r="B700" s="7"/>
-      <c r="C700" s="8"/>
-      <c r="D700" s="8"/>
-      <c r="E700" s="7"/>
-      <c r="F700" s="7"/>
-      <c r="G700" s="7"/>
-      <c r="H700" s="7"/>
-      <c r="I700" s="8"/>
-      <c r="J700" s="8"/>
-      <c r="K700" s="7"/>
-      <c r="L700" s="7"/>
-      <c r="M700" s="7"/>
-      <c r="N700" s="7"/>
-      <c r="O700" s="8"/>
-      <c r="P700" s="8"/>
-      <c r="Q700" s="7"/>
-      <c r="R700" s="7"/>
-      <c r="S700" s="7"/>
-      <c r="T700" s="7"/>
-      <c r="U700" s="7"/>
-      <c r="V700" s="7"/>
-      <c r="W700" s="7"/>
-      <c r="X700" s="7"/>
-      <c r="Y700" s="7"/>
-      <c r="Z700" s="7"/>
-    </row>
-    <row r="701" spans="1:26">
-      <c r="A701" s="7"/>
-      <c r="B701" s="7"/>
-      <c r="C701" s="8"/>
-      <c r="D701" s="8"/>
-      <c r="E701" s="7"/>
-      <c r="F701" s="7"/>
-      <c r="G701" s="7"/>
-      <c r="H701" s="7"/>
-      <c r="I701" s="8"/>
-      <c r="J701" s="8"/>
-      <c r="K701" s="7"/>
-      <c r="L701" s="7"/>
-      <c r="M701" s="7"/>
-      <c r="N701" s="7"/>
-      <c r="O701" s="8"/>
-      <c r="P701" s="8"/>
-      <c r="Q701" s="7"/>
-      <c r="R701" s="7"/>
-      <c r="S701" s="7"/>
-      <c r="T701" s="7"/>
-      <c r="U701" s="7"/>
-      <c r="V701" s="7"/>
-      <c r="W701" s="7"/>
-      <c r="X701" s="7"/>
-      <c r="Y701" s="7"/>
-      <c r="Z701" s="7"/>
-    </row>
-    <row r="702" spans="1:26">
-      <c r="A702" s="7"/>
-      <c r="B702" s="7"/>
-      <c r="C702" s="8"/>
-      <c r="D702" s="8"/>
-      <c r="E702" s="7"/>
-      <c r="F702" s="7"/>
-      <c r="G702" s="7"/>
-      <c r="H702" s="7"/>
-      <c r="I702" s="8"/>
-      <c r="J702" s="8"/>
-      <c r="K702" s="7"/>
-      <c r="L702" s="7"/>
-      <c r="M702" s="7"/>
-      <c r="N702" s="7"/>
-      <c r="O702" s="8"/>
-      <c r="P702" s="8"/>
-      <c r="Q702" s="7"/>
-      <c r="R702" s="7"/>
-      <c r="S702" s="7"/>
-      <c r="T702" s="7"/>
-      <c r="U702" s="7"/>
-      <c r="V702" s="7"/>
-      <c r="W702" s="7"/>
-      <c r="X702" s="7"/>
-      <c r="Y702" s="7"/>
-      <c r="Z702" s="7"/>
-    </row>
-    <row r="703" spans="1:26">
-      <c r="A703" s="7"/>
-      <c r="B703" s="7"/>
-      <c r="C703" s="8"/>
-      <c r="D703" s="8"/>
-      <c r="E703" s="7"/>
-      <c r="F703" s="7"/>
-      <c r="G703" s="7"/>
-      <c r="H703" s="7"/>
-      <c r="I703" s="8"/>
-      <c r="J703" s="8"/>
-      <c r="K703" s="7"/>
-      <c r="L703" s="7"/>
-      <c r="M703" s="7"/>
-      <c r="N703" s="7"/>
-      <c r="O703" s="8"/>
-      <c r="P703" s="8"/>
-      <c r="Q703" s="7"/>
-      <c r="R703" s="7"/>
-      <c r="S703" s="7"/>
-      <c r="T703" s="7"/>
-      <c r="U703" s="7"/>
-      <c r="V703" s="7"/>
-      <c r="W703" s="7"/>
-      <c r="X703" s="7"/>
-      <c r="Y703" s="7"/>
-      <c r="Z703" s="7"/>
-    </row>
-    <row r="704" spans="1:26">
-      <c r="A704" s="7"/>
-      <c r="B704" s="7"/>
-      <c r="C704" s="8"/>
-      <c r="D704" s="8"/>
-      <c r="E704" s="7"/>
-      <c r="F704" s="7"/>
-      <c r="G704" s="7"/>
-      <c r="H704" s="7"/>
-      <c r="I704" s="8"/>
-      <c r="J704" s="8"/>
-      <c r="K704" s="7"/>
-      <c r="L704" s="7"/>
-      <c r="M704" s="7"/>
-      <c r="N704" s="7"/>
-      <c r="O704" s="8"/>
-      <c r="P704" s="8"/>
-      <c r="Q704" s="7"/>
-      <c r="R704" s="7"/>
-      <c r="S704" s="7"/>
-      <c r="T704" s="7"/>
-      <c r="U704" s="7"/>
-      <c r="V704" s="7"/>
-      <c r="W704" s="7"/>
-      <c r="X704" s="7"/>
-      <c r="Y704" s="7"/>
-      <c r="Z704" s="7"/>
-    </row>
-    <row r="705" spans="1:26">
-      <c r="A705" s="7"/>
-      <c r="B705" s="7"/>
-      <c r="C705" s="8"/>
-      <c r="D705" s="8"/>
-      <c r="E705" s="7"/>
-      <c r="F705" s="7"/>
-      <c r="G705" s="7"/>
-      <c r="H705" s="7"/>
-      <c r="I705" s="8"/>
-      <c r="J705" s="8"/>
-      <c r="K705" s="7"/>
-      <c r="L705" s="7"/>
-      <c r="M705" s="7"/>
-      <c r="N705" s="7"/>
-      <c r="O705" s="8"/>
-      <c r="P705" s="8"/>
-      <c r="Q705" s="7"/>
-      <c r="R705" s="7"/>
-      <c r="S705" s="7"/>
-      <c r="T705" s="7"/>
-      <c r="U705" s="7"/>
-      <c r="V705" s="7"/>
-      <c r="W705" s="7"/>
-      <c r="X705" s="7"/>
-      <c r="Y705" s="7"/>
-      <c r="Z705" s="7"/>
-    </row>
-    <row r="706" spans="1:26">
-      <c r="A706" s="7"/>
-      <c r="B706" s="7"/>
-      <c r="C706" s="8"/>
-      <c r="D706" s="8"/>
-      <c r="E706" s="7"/>
-      <c r="F706" s="7"/>
-      <c r="G706" s="7"/>
-      <c r="H706" s="7"/>
-      <c r="I706" s="8"/>
-      <c r="J706" s="8"/>
-      <c r="K706" s="7"/>
-      <c r="L706" s="7"/>
-      <c r="M706" s="7"/>
-      <c r="N706" s="7"/>
-      <c r="O706" s="8"/>
-      <c r="P706" s="8"/>
-      <c r="Q706" s="7"/>
-      <c r="R706" s="7"/>
-      <c r="S706" s="7"/>
-      <c r="T706" s="7"/>
-      <c r="U706" s="7"/>
-      <c r="V706" s="7"/>
-      <c r="W706" s="7"/>
-      <c r="X706" s="7"/>
-      <c r="Y706" s="7"/>
-      <c r="Z706" s="7"/>
-    </row>
-    <row r="707" spans="1:26">
-      <c r="A707" s="7"/>
-      <c r="B707" s="7"/>
-      <c r="C707" s="8"/>
-      <c r="D707" s="8"/>
-      <c r="E707" s="7"/>
-      <c r="F707" s="7"/>
-      <c r="G707" s="7"/>
-      <c r="H707" s="7"/>
-      <c r="I707" s="8"/>
-      <c r="J707" s="8"/>
-      <c r="K707" s="7"/>
-      <c r="L707" s="7"/>
-      <c r="M707" s="7"/>
-      <c r="N707" s="7"/>
-      <c r="O707" s="8"/>
-      <c r="P707" s="8"/>
-      <c r="Q707" s="7"/>
-      <c r="R707" s="7"/>
-      <c r="S707" s="7"/>
-      <c r="T707" s="7"/>
-      <c r="U707" s="7"/>
-      <c r="V707" s="7"/>
-      <c r="W707" s="7"/>
-      <c r="X707" s="7"/>
-      <c r="Y707" s="7"/>
-      <c r="Z707" s="7"/>
-    </row>
-    <row r="708" spans="1:26">
-      <c r="A708" s="7"/>
-      <c r="B708" s="7"/>
-      <c r="C708" s="8"/>
-      <c r="D708" s="8"/>
-      <c r="E708" s="7"/>
-      <c r="F708" s="7"/>
-      <c r="G708" s="7"/>
-      <c r="H708" s="7"/>
-      <c r="I708" s="8"/>
-      <c r="J708" s="8"/>
-      <c r="K708" s="7"/>
-      <c r="L708" s="7"/>
-      <c r="M708" s="7"/>
-      <c r="N708" s="7"/>
-      <c r="O708" s="8"/>
-      <c r="P708" s="8"/>
-      <c r="Q708" s="7"/>
-      <c r="R708" s="7"/>
-      <c r="S708" s="7"/>
-      <c r="T708" s="7"/>
-      <c r="U708" s="7"/>
-      <c r="V708" s="7"/>
-      <c r="W708" s="7"/>
-      <c r="X708" s="7"/>
-      <c r="Y708" s="7"/>
-      <c r="Z708" s="7"/>
-    </row>
-    <row r="709" spans="1:26">
-      <c r="A709" s="7"/>
-      <c r="B709" s="7"/>
-      <c r="C709" s="8"/>
-      <c r="D709" s="8"/>
-      <c r="E709" s="7"/>
-      <c r="F709" s="7"/>
-      <c r="G709" s="7"/>
-      <c r="H709" s="7"/>
-      <c r="I709" s="8"/>
-      <c r="J709" s="8"/>
-      <c r="K709" s="7"/>
-      <c r="L709" s="7"/>
-      <c r="M709" s="7"/>
-      <c r="N709" s="7"/>
-      <c r="O709" s="8"/>
-      <c r="P709" s="8"/>
-      <c r="Q709" s="7"/>
-      <c r="R709" s="7"/>
-      <c r="S709" s="7"/>
-      <c r="T709" s="7"/>
-      <c r="U709" s="7"/>
-      <c r="V709" s="7"/>
-      <c r="W709" s="7"/>
-      <c r="X709" s="7"/>
-      <c r="Y709" s="7"/>
-      <c r="Z709" s="7"/>
-    </row>
-    <row r="710" spans="1:26">
-      <c r="A710" s="7"/>
-      <c r="B710" s="7"/>
-      <c r="C710" s="8"/>
-      <c r="D710" s="8"/>
-      <c r="E710" s="7"/>
-      <c r="F710" s="7"/>
-      <c r="G710" s="7"/>
-      <c r="H710" s="7"/>
-      <c r="I710" s="8"/>
-      <c r="J710" s="8"/>
-      <c r="K710" s="7"/>
-      <c r="L710" s="7"/>
-      <c r="M710" s="7"/>
-      <c r="N710" s="7"/>
-      <c r="O710" s="8"/>
-      <c r="P710" s="8"/>
-      <c r="Q710" s="7"/>
-      <c r="R710" s="7"/>
-      <c r="S710" s="7"/>
-      <c r="T710" s="7"/>
-      <c r="U710" s="7"/>
-      <c r="V710" s="7"/>
-      <c r="W710" s="7"/>
-      <c r="X710" s="7"/>
-      <c r="Y710" s="7"/>
-      <c r="Z710" s="7"/>
-    </row>
-    <row r="711" spans="1:26">
-      <c r="A711" s="7"/>
-      <c r="B711" s="7"/>
-      <c r="C711" s="8"/>
-      <c r="D711" s="8"/>
-      <c r="E711" s="7"/>
-      <c r="F711" s="7"/>
-      <c r="G711" s="7"/>
-      <c r="H711" s="7"/>
-      <c r="I711" s="8"/>
-      <c r="J711" s="8"/>
-      <c r="K711" s="7"/>
-      <c r="L711" s="7"/>
-      <c r="M711" s="7"/>
-      <c r="N711" s="7"/>
-      <c r="O711" s="8"/>
-      <c r="P711" s="8"/>
-      <c r="Q711" s="7"/>
-      <c r="R711" s="7"/>
-      <c r="S711" s="7"/>
-      <c r="T711" s="7"/>
-      <c r="U711" s="7"/>
-      <c r="V711" s="7"/>
-      <c r="W711" s="7"/>
-      <c r="X711" s="7"/>
-      <c r="Y711" s="7"/>
-      <c r="Z711" s="7"/>
-    </row>
-    <row r="712" spans="1:26">
-      <c r="A712" s="7"/>
-      <c r="B712" s="7"/>
-      <c r="C712" s="8"/>
-      <c r="D712" s="8"/>
-      <c r="E712" s="7"/>
-      <c r="F712" s="7"/>
-      <c r="G712" s="7"/>
-      <c r="H712" s="7"/>
-      <c r="I712" s="8"/>
-      <c r="J712" s="8"/>
-      <c r="K712" s="7"/>
-      <c r="L712" s="7"/>
-      <c r="M712" s="7"/>
-      <c r="N712" s="7"/>
-      <c r="O712" s="8"/>
-      <c r="P712" s="8"/>
-      <c r="Q712" s="7"/>
-      <c r="R712" s="7"/>
-      <c r="S712" s="7"/>
-      <c r="T712" s="7"/>
-      <c r="U712" s="7"/>
-      <c r="V712" s="7"/>
-      <c r="W712" s="7"/>
-      <c r="X712" s="7"/>
-      <c r="Y712" s="7"/>
-      <c r="Z712" s="7"/>
-    </row>
-    <row r="713" spans="1:26">
-      <c r="A713" s="7"/>
-      <c r="B713" s="7"/>
-      <c r="C713" s="8"/>
-      <c r="D713" s="8"/>
-      <c r="E713" s="7"/>
-      <c r="F713" s="7"/>
-      <c r="G713" s="7"/>
-      <c r="H713" s="7"/>
-      <c r="I713" s="8"/>
-      <c r="J713" s="8"/>
-      <c r="K713" s="7"/>
-      <c r="L713" s="7"/>
-      <c r="M713" s="7"/>
-      <c r="N713" s="7"/>
-      <c r="O713" s="8"/>
-      <c r="P713" s="8"/>
-      <c r="Q713" s="7"/>
-      <c r="R713" s="7"/>
-      <c r="S713" s="7"/>
-      <c r="T713" s="7"/>
-      <c r="U713" s="7"/>
-      <c r="V713" s="7"/>
-      <c r="W713" s="7"/>
-      <c r="X713" s="7"/>
-      <c r="Y713" s="7"/>
-      <c r="Z713" s="7"/>
-    </row>
-    <row r="714" spans="1:26">
-      <c r="A714" s="7"/>
-      <c r="B714" s="7"/>
-      <c r="C714" s="8"/>
-      <c r="D714" s="8"/>
-      <c r="E714" s="7"/>
-      <c r="F714" s="7"/>
-      <c r="G714" s="7"/>
-      <c r="H714" s="7"/>
-      <c r="I714" s="8"/>
-      <c r="J714" s="8"/>
-      <c r="K714" s="7"/>
-      <c r="L714" s="7"/>
-      <c r="M714" s="7"/>
-      <c r="N714" s="7"/>
-      <c r="O714" s="8"/>
-      <c r="P714" s="8"/>
-      <c r="Q714" s="7"/>
-      <c r="R714" s="7"/>
-      <c r="S714" s="7"/>
-      <c r="T714" s="7"/>
-      <c r="U714" s="7"/>
-      <c r="V714" s="7"/>
-      <c r="W714" s="7"/>
-      <c r="X714" s="7"/>
-      <c r="Y714" s="7"/>
-      <c r="Z714" s="7"/>
-    </row>
-    <row r="715" spans="1:26">
-      <c r="A715" s="7"/>
-      <c r="B715" s="7"/>
-      <c r="C715" s="8"/>
-      <c r="D715" s="8"/>
-      <c r="E715" s="7"/>
-      <c r="F715" s="7"/>
-      <c r="G715" s="7"/>
-      <c r="H715" s="7"/>
-      <c r="I715" s="8"/>
-      <c r="J715" s="8"/>
-      <c r="K715" s="7"/>
-      <c r="L715" s="7"/>
-      <c r="M715" s="7"/>
-      <c r="N715" s="7"/>
-      <c r="O715" s="8"/>
-      <c r="P715" s="8"/>
-      <c r="Q715" s="7"/>
-      <c r="R715" s="7"/>
-      <c r="S715" s="7"/>
-      <c r="T715" s="7"/>
-      <c r="U715" s="7"/>
-      <c r="V715" s="7"/>
-      <c r="W715" s="7"/>
-      <c r="X715" s="7"/>
-      <c r="Y715" s="7"/>
-      <c r="Z715" s="7"/>
-    </row>
-    <row r="716" spans="1:26">
-      <c r="A716" s="7"/>
-      <c r="B716" s="7"/>
-      <c r="C716" s="8"/>
-      <c r="D716" s="8"/>
-      <c r="E716" s="7"/>
-      <c r="F716" s="7"/>
-      <c r="G716" s="7"/>
-      <c r="H716" s="7"/>
-      <c r="I716" s="8"/>
-      <c r="J716" s="8"/>
-      <c r="K716" s="7"/>
-      <c r="L716" s="7"/>
-      <c r="M716" s="7"/>
-      <c r="N716" s="7"/>
-      <c r="O716" s="8"/>
-      <c r="P716" s="8"/>
-      <c r="Q716" s="7"/>
-      <c r="R716" s="7"/>
-      <c r="S716" s="7"/>
-      <c r="T716" s="7"/>
-      <c r="U716" s="7"/>
-      <c r="V716" s="7"/>
-      <c r="W716" s="7"/>
-      <c r="X716" s="7"/>
-      <c r="Y716" s="7"/>
-      <c r="Z716" s="7"/>
-    </row>
-    <row r="717" spans="1:26">
-      <c r="A717" s="7"/>
-      <c r="B717" s="7"/>
-      <c r="C717" s="8"/>
-      <c r="D717" s="8"/>
-      <c r="E717" s="7"/>
-      <c r="F717" s="7"/>
-      <c r="G717" s="7"/>
-      <c r="H717" s="7"/>
-      <c r="I717" s="8"/>
-      <c r="J717" s="8"/>
-      <c r="K717" s="7"/>
-      <c r="L717" s="7"/>
-      <c r="M717" s="7"/>
-      <c r="N717" s="7"/>
-      <c r="O717" s="8"/>
-      <c r="P717" s="8"/>
-      <c r="Q717" s="7"/>
-      <c r="R717" s="7"/>
-      <c r="S717" s="7"/>
-      <c r="T717" s="7"/>
-      <c r="U717" s="7"/>
-      <c r="V717" s="7"/>
-      <c r="W717" s="7"/>
-      <c r="X717" s="7"/>
-      <c r="Y717" s="7"/>
-      <c r="Z717" s="7"/>
-    </row>
-    <row r="718" spans="1:26">
-      <c r="A718" s="7"/>
-      <c r="B718" s="7"/>
-      <c r="C718" s="8"/>
-      <c r="D718" s="8"/>
-      <c r="E718" s="7"/>
-      <c r="F718" s="7"/>
-      <c r="G718" s="7"/>
-      <c r="H718" s="7"/>
-      <c r="I718" s="8"/>
-      <c r="J718" s="8"/>
-      <c r="K718" s="7"/>
-      <c r="L718" s="7"/>
-      <c r="M718" s="7"/>
-      <c r="N718" s="7"/>
-      <c r="O718" s="8"/>
-      <c r="P718" s="8"/>
-      <c r="Q718" s="7"/>
-      <c r="R718" s="7"/>
-      <c r="S718" s="7"/>
-      <c r="T718" s="7"/>
-      <c r="U718" s="7"/>
-      <c r="V718" s="7"/>
-      <c r="W718" s="7"/>
-      <c r="X718" s="7"/>
-      <c r="Y718" s="7"/>
-      <c r="Z718" s="7"/>
-    </row>
-    <row r="719" spans="1:26">
-      <c r="A719" s="7"/>
-      <c r="B719" s="7"/>
-      <c r="C719" s="8"/>
-      <c r="D719" s="8"/>
-      <c r="E719" s="7"/>
-      <c r="F719" s="7"/>
-      <c r="G719" s="7"/>
-      <c r="H719" s="7"/>
-      <c r="I719" s="8"/>
-      <c r="J719" s="8"/>
-      <c r="K719" s="7"/>
-      <c r="L719" s="7"/>
-      <c r="M719" s="7"/>
-      <c r="N719" s="7"/>
-      <c r="O719" s="8"/>
-      <c r="P719" s="8"/>
-      <c r="Q719" s="7"/>
-      <c r="R719" s="7"/>
-      <c r="S719" s="7"/>
-      <c r="T719" s="7"/>
-      <c r="U719" s="7"/>
-      <c r="V719" s="7"/>
-      <c r="W719" s="7"/>
-      <c r="X719" s="7"/>
-      <c r="Y719" s="7"/>
-      <c r="Z719" s="7"/>
-    </row>
-    <row r="720" spans="1:26">
-      <c r="A720" s="7"/>
-      <c r="B720" s="7"/>
-      <c r="C720" s="8"/>
-      <c r="D720" s="8"/>
-      <c r="E720" s="7"/>
-      <c r="F720" s="7"/>
-      <c r="G720" s="7"/>
-      <c r="H720" s="7"/>
-      <c r="I720" s="8"/>
-      <c r="J720" s="8"/>
-      <c r="K720" s="7"/>
-      <c r="L720" s="7"/>
-      <c r="M720" s="7"/>
-      <c r="N720" s="7"/>
-      <c r="O720" s="8"/>
-      <c r="P720" s="8"/>
-      <c r="Q720" s="7"/>
-      <c r="R720" s="7"/>
-      <c r="S720" s="7"/>
-      <c r="T720" s="7"/>
-      <c r="U720" s="7"/>
-      <c r="V720" s="7"/>
-      <c r="W720" s="7"/>
-      <c r="X720" s="7"/>
-      <c r="Y720" s="7"/>
-      <c r="Z720" s="7"/>
-    </row>
-    <row r="721" spans="1:26">
-      <c r="A721" s="7"/>
-      <c r="B721" s="7"/>
-      <c r="C721" s="8"/>
-      <c r="D721" s="8"/>
-      <c r="E721" s="7"/>
-      <c r="F721" s="7"/>
-      <c r="G721" s="7"/>
-      <c r="H721" s="7"/>
-      <c r="I721" s="8"/>
-      <c r="J721" s="8"/>
-      <c r="K721" s="7"/>
-      <c r="L721" s="7"/>
-      <c r="M721" s="7"/>
-      <c r="N721" s="7"/>
-      <c r="O721" s="8"/>
-      <c r="P721" s="8"/>
-      <c r="Q721" s="7"/>
-      <c r="R721" s="7"/>
-      <c r="S721" s="7"/>
-      <c r="T721" s="7"/>
-      <c r="U721" s="7"/>
-      <c r="V721" s="7"/>
-      <c r="W721" s="7"/>
-      <c r="X721" s="7"/>
-      <c r="Y721" s="7"/>
-      <c r="Z721" s="7"/>
-    </row>
-    <row r="722" spans="1:26">
-      <c r="A722" s="7"/>
-      <c r="B722" s="7"/>
-      <c r="C722" s="8"/>
-      <c r="D722" s="8"/>
-      <c r="E722" s="7"/>
-      <c r="F722" s="7"/>
-      <c r="G722" s="7"/>
-      <c r="H722" s="7"/>
-      <c r="I722" s="8"/>
-      <c r="J722" s="8"/>
-      <c r="K722" s="7"/>
-      <c r="L722" s="7"/>
-      <c r="M722" s="7"/>
-      <c r="N722" s="7"/>
-      <c r="O722" s="8"/>
-      <c r="P722" s="8"/>
-      <c r="Q722" s="7"/>
-      <c r="R722" s="7"/>
-      <c r="S722" s="7"/>
-      <c r="T722" s="7"/>
-      <c r="U722" s="7"/>
-      <c r="V722" s="7"/>
-      <c r="W722" s="7"/>
-      <c r="X722" s="7"/>
-      <c r="Y722" s="7"/>
-      <c r="Z722" s="7"/>
-    </row>
-    <row r="723" spans="1:26">
-      <c r="A723" s="7"/>
-      <c r="B723" s="7"/>
-      <c r="C723" s="8"/>
-      <c r="D723" s="8"/>
-      <c r="E723" s="7"/>
-      <c r="F723" s="7"/>
-      <c r="G723" s="7"/>
-      <c r="H723" s="7"/>
-      <c r="I723" s="8"/>
-      <c r="J723" s="8"/>
-      <c r="K723" s="7"/>
-      <c r="L723" s="7"/>
-      <c r="M723" s="7"/>
-      <c r="N723" s="7"/>
-      <c r="O723" s="8"/>
-      <c r="P723" s="8"/>
-      <c r="Q723" s="7"/>
-      <c r="R723" s="7"/>
-      <c r="S723" s="7"/>
-      <c r="T723" s="7"/>
-      <c r="U723" s="7"/>
-      <c r="V723" s="7"/>
-      <c r="W723" s="7"/>
-      <c r="X723" s="7"/>
-      <c r="Y723" s="7"/>
-      <c r="Z723" s="7"/>
-    </row>
-    <row r="724" spans="1:26">
-      <c r="A724" s="7"/>
-      <c r="B724" s="7"/>
-      <c r="C724" s="8"/>
-      <c r="D724" s="8"/>
-      <c r="E724" s="7"/>
-      <c r="F724" s="7"/>
-      <c r="G724" s="7"/>
-      <c r="H724" s="7"/>
-      <c r="I724" s="8"/>
-      <c r="J724" s="8"/>
-      <c r="K724" s="7"/>
-      <c r="L724" s="7"/>
-      <c r="M724" s="7"/>
-      <c r="N724" s="7"/>
-      <c r="O724" s="8"/>
-      <c r="P724" s="8"/>
-      <c r="Q724" s="7"/>
-      <c r="R724" s="7"/>
-      <c r="S724" s="7"/>
-      <c r="T724" s="7"/>
-      <c r="U724" s="7"/>
-      <c r="V724" s="7"/>
-      <c r="W724" s="7"/>
-      <c r="X724" s="7"/>
-      <c r="Y724" s="7"/>
-      <c r="Z724" s="7"/>
-    </row>
-    <row r="725" spans="1:26">
-      <c r="A725" s="7"/>
-      <c r="B725" s="7"/>
-      <c r="C725" s="8"/>
-      <c r="D725" s="8"/>
-      <c r="E725" s="7"/>
-      <c r="F725" s="7"/>
-      <c r="G725" s="7"/>
-      <c r="H725" s="7"/>
-      <c r="I725" s="8"/>
-      <c r="J725" s="8"/>
-      <c r="K725" s="7"/>
-      <c r="L725" s="7"/>
-      <c r="M725" s="7"/>
-      <c r="N725" s="7"/>
-      <c r="O725" s="8"/>
-      <c r="P725" s="8"/>
-      <c r="Q725" s="7"/>
-      <c r="R725" s="7"/>
-      <c r="S725" s="7"/>
-      <c r="T725" s="7"/>
-      <c r="U725" s="7"/>
-      <c r="V725" s="7"/>
-      <c r="W725" s="7"/>
-      <c r="X725" s="7"/>
-      <c r="Y725" s="7"/>
-      <c r="Z725" s="7"/>
-    </row>
-    <row r="726" spans="1:26">
-      <c r="A726" s="7"/>
-      <c r="B726" s="7"/>
-      <c r="C726" s="8"/>
-      <c r="D726" s="8"/>
-      <c r="E726" s="7"/>
-      <c r="F726" s="7"/>
-      <c r="G726" s="7"/>
-      <c r="H726" s="7"/>
-      <c r="I726" s="8"/>
-      <c r="J726" s="8"/>
-      <c r="K726" s="7"/>
-      <c r="L726" s="7"/>
-      <c r="M726" s="7"/>
-      <c r="N726" s="7"/>
-      <c r="O726" s="8"/>
-      <c r="P726" s="8"/>
-      <c r="Q726" s="7"/>
-      <c r="R726" s="7"/>
-      <c r="S726" s="7"/>
-      <c r="T726" s="7"/>
-      <c r="U726" s="7"/>
-      <c r="V726" s="7"/>
-      <c r="W726" s="7"/>
-      <c r="X726" s="7"/>
-      <c r="Y726" s="7"/>
-      <c r="Z726" s="7"/>
-    </row>
-    <row r="727" spans="1:26">
-      <c r="A727" s="7"/>
-      <c r="B727" s="7"/>
-      <c r="C727" s="8"/>
-      <c r="D727" s="8"/>
-      <c r="E727" s="7"/>
-      <c r="F727" s="7"/>
-      <c r="G727" s="7"/>
-      <c r="H727" s="7"/>
-      <c r="I727" s="8"/>
-      <c r="J727" s="8"/>
-      <c r="K727" s="7"/>
-      <c r="L727" s="7"/>
-      <c r="M727" s="7"/>
-      <c r="N727" s="7"/>
-      <c r="O727" s="8"/>
-      <c r="P727" s="8"/>
-      <c r="Q727" s="7"/>
-      <c r="R727" s="7"/>
-      <c r="S727" s="7"/>
-      <c r="T727" s="7"/>
-      <c r="U727" s="7"/>
-      <c r="V727" s="7"/>
-      <c r="W727" s="7"/>
-      <c r="X727" s="7"/>
-      <c r="Y727" s="7"/>
-      <c r="Z727" s="7"/>
-    </row>
-    <row r="728" spans="1:26">
-      <c r="A728" s="7"/>
-      <c r="B728" s="7"/>
-      <c r="C728" s="8"/>
-      <c r="D728" s="8"/>
-      <c r="E728" s="7"/>
-      <c r="F728" s="7"/>
-      <c r="G728" s="7"/>
-      <c r="H728" s="7"/>
-      <c r="I728" s="8"/>
-      <c r="J728" s="8"/>
-      <c r="K728" s="7"/>
-      <c r="L728" s="7"/>
-      <c r="M728" s="7"/>
-      <c r="N728" s="7"/>
-      <c r="O728" s="8"/>
-      <c r="P728" s="8"/>
-      <c r="Q728" s="7"/>
-      <c r="R728" s="7"/>
-      <c r="S728" s="7"/>
-      <c r="T728" s="7"/>
-      <c r="U728" s="7"/>
-      <c r="V728" s="7"/>
-      <c r="W728" s="7"/>
-      <c r="X728" s="7"/>
-      <c r="Y728" s="7"/>
-      <c r="Z728" s="7"/>
-    </row>
-    <row r="729" spans="1:26">
-      <c r="A729" s="7"/>
-      <c r="B729" s="7"/>
-      <c r="C729" s="8"/>
-      <c r="D729" s="8"/>
-      <c r="E729" s="7"/>
-      <c r="F729" s="7"/>
-      <c r="G729" s="7"/>
-      <c r="H729" s="7"/>
-      <c r="I729" s="8"/>
-      <c r="J729" s="8"/>
-      <c r="K729" s="7"/>
-      <c r="L729" s="7"/>
-      <c r="M729" s="7"/>
-      <c r="N729" s="7"/>
-      <c r="O729" s="8"/>
-      <c r="P729" s="8"/>
-      <c r="Q729" s="7"/>
-      <c r="R729" s="7"/>
-      <c r="S729" s="7"/>
-      <c r="T729" s="7"/>
-      <c r="U729" s="7"/>
-      <c r="V729" s="7"/>
-      <c r="W729" s="7"/>
-      <c r="X729" s="7"/>
-      <c r="Y729" s="7"/>
-      <c r="Z729" s="7"/>
-    </row>
-    <row r="730" spans="1:26">
-      <c r="A730" s="7"/>
-      <c r="B730" s="7"/>
-      <c r="C730" s="8"/>
-      <c r="D730" s="8"/>
-      <c r="E730" s="7"/>
-      <c r="F730" s="7"/>
-      <c r="G730" s="7"/>
-      <c r="H730" s="7"/>
-      <c r="I730" s="8"/>
-      <c r="J730" s="8"/>
-      <c r="K730" s="7"/>
-      <c r="L730" s="7"/>
-      <c r="M730" s="7"/>
-      <c r="N730" s="7"/>
-      <c r="O730" s="8"/>
-      <c r="P730" s="8"/>
-      <c r="Q730" s="7"/>
-      <c r="R730" s="7"/>
-      <c r="S730" s="7"/>
-      <c r="T730" s="7"/>
-      <c r="U730" s="7"/>
-      <c r="V730" s="7"/>
-      <c r="W730" s="7"/>
-      <c r="X730" s="7"/>
-      <c r="Y730" s="7"/>
-      <c r="Z730" s="7"/>
-    </row>
-    <row r="731" spans="1:26">
-      <c r="A731" s="7"/>
-      <c r="B731" s="7"/>
-      <c r="C731" s="8"/>
-      <c r="D731" s="8"/>
-      <c r="E731" s="7"/>
-      <c r="F731" s="7"/>
-      <c r="G731" s="7"/>
-      <c r="H731" s="7"/>
-      <c r="I731" s="8"/>
-      <c r="J731" s="8"/>
-      <c r="K731" s="7"/>
-      <c r="L731" s="7"/>
-      <c r="M731" s="7"/>
-      <c r="N731" s="7"/>
-      <c r="O731" s="8"/>
-      <c r="P731" s="8"/>
-      <c r="Q731" s="7"/>
-      <c r="R731" s="7"/>
-      <c r="S731" s="7"/>
-      <c r="T731" s="7"/>
-      <c r="U731" s="7"/>
-      <c r="V731" s="7"/>
-      <c r="W731" s="7"/>
-      <c r="X731" s="7"/>
-      <c r="Y731" s="7"/>
-      <c r="Z731" s="7"/>
-    </row>
-    <row r="732" spans="1:26">
-      <c r="A732" s="7"/>
-      <c r="B732" s="7"/>
-      <c r="C732" s="8"/>
-      <c r="D732" s="8"/>
-      <c r="E732" s="7"/>
-      <c r="F732" s="7"/>
-      <c r="G732" s="7"/>
-      <c r="H732" s="7"/>
-      <c r="I732" s="8"/>
-      <c r="J732" s="8"/>
-      <c r="K732" s="7"/>
-      <c r="L732" s="7"/>
-      <c r="M732" s="7"/>
-      <c r="N732" s="7"/>
-      <c r="O732" s="8"/>
-      <c r="P732" s="8"/>
-      <c r="Q732" s="7"/>
-      <c r="R732" s="7"/>
-      <c r="S732" s="7"/>
-      <c r="T732" s="7"/>
-      <c r="U732" s="7"/>
-      <c r="V732" s="7"/>
-      <c r="W732" s="7"/>
-      <c r="X732" s="7"/>
-      <c r="Y732" s="7"/>
-      <c r="Z732" s="7"/>
-    </row>
-    <row r="733" spans="1:26">
-      <c r="A733" s="7"/>
-      <c r="B733" s="7"/>
-      <c r="C733" s="8"/>
-      <c r="D733" s="8"/>
-      <c r="E733" s="7"/>
-      <c r="F733" s="7"/>
-      <c r="G733" s="7"/>
-      <c r="H733" s="7"/>
-      <c r="I733" s="8"/>
-      <c r="J733" s="8"/>
-      <c r="K733" s="7"/>
-      <c r="L733" s="7"/>
-      <c r="M733" s="7"/>
-      <c r="N733" s="7"/>
-      <c r="O733" s="8"/>
-      <c r="P733" s="8"/>
-      <c r="Q733" s="7"/>
-      <c r="R733" s="7"/>
-      <c r="S733" s="7"/>
-      <c r="T733" s="7"/>
-      <c r="U733" s="7"/>
-      <c r="V733" s="7"/>
-      <c r="W733" s="7"/>
-      <c r="X733" s="7"/>
-      <c r="Y733" s="7"/>
-      <c r="Z733" s="7"/>
-    </row>
-    <row r="734" spans="1:26">
-      <c r="A734" s="7"/>
-      <c r="B734" s="7"/>
-      <c r="C734" s="8"/>
-      <c r="D734" s="8"/>
-      <c r="E734" s="7"/>
-      <c r="F734" s="7"/>
-      <c r="G734" s="7"/>
-      <c r="H734" s="7"/>
-      <c r="I734" s="8"/>
-      <c r="J734" s="8"/>
-      <c r="K734" s="7"/>
-      <c r="L734" s="7"/>
-      <c r="M734" s="7"/>
-      <c r="N734" s="7"/>
-      <c r="O734" s="8"/>
-      <c r="P734" s="8"/>
-      <c r="Q734" s="7"/>
-      <c r="R734" s="7"/>
-      <c r="S734" s="7"/>
-      <c r="T734" s="7"/>
-      <c r="U734" s="7"/>
-      <c r="V734" s="7"/>
-      <c r="W734" s="7"/>
-      <c r="X734" s="7"/>
-      <c r="Y734" s="7"/>
-      <c r="Z734" s="7"/>
-    </row>
-    <row r="735" spans="1:26">
-      <c r="A735" s="7"/>
-      <c r="B735" s="7"/>
-      <c r="C735" s="8"/>
-      <c r="D735" s="8"/>
-      <c r="E735" s="7"/>
-      <c r="F735" s="7"/>
-      <c r="G735" s="7"/>
-      <c r="H735" s="7"/>
-      <c r="I735" s="8"/>
-      <c r="J735" s="8"/>
-      <c r="K735" s="7"/>
-      <c r="L735" s="7"/>
-      <c r="M735" s="7"/>
-      <c r="N735" s="7"/>
-      <c r="O735" s="8"/>
-      <c r="P735" s="8"/>
-      <c r="Q735" s="7"/>
-      <c r="R735" s="7"/>
-      <c r="S735" s="7"/>
-      <c r="T735" s="7"/>
-      <c r="U735" s="7"/>
-      <c r="V735" s="7"/>
-      <c r="W735" s="7"/>
-      <c r="X735" s="7"/>
-      <c r="Y735" s="7"/>
-      <c r="Z735" s="7"/>
-    </row>
-    <row r="736" spans="1:26">
-      <c r="A736" s="7"/>
-      <c r="B736" s="7"/>
-      <c r="C736" s="8"/>
-      <c r="D736" s="8"/>
-      <c r="E736" s="7"/>
-      <c r="F736" s="7"/>
-      <c r="G736" s="7"/>
-      <c r="H736" s="7"/>
-      <c r="I736" s="8"/>
-      <c r="J736" s="8"/>
-      <c r="K736" s="7"/>
-      <c r="L736" s="7"/>
-      <c r="M736" s="7"/>
-      <c r="N736" s="7"/>
-      <c r="O736" s="8"/>
-      <c r="P736" s="8"/>
-      <c r="Q736" s="7"/>
-      <c r="R736" s="7"/>
-      <c r="S736" s="7"/>
-      <c r="T736" s="7"/>
-      <c r="U736" s="7"/>
-      <c r="V736" s="7"/>
-      <c r="W736" s="7"/>
-      <c r="X736" s="7"/>
-      <c r="Y736" s="7"/>
-      <c r="Z736" s="7"/>
-    </row>
-    <row r="737" spans="1:26">
-      <c r="A737" s="7"/>
-      <c r="B737" s="7"/>
-      <c r="C737" s="8"/>
-      <c r="D737" s="8"/>
-      <c r="E737" s="7"/>
-      <c r="F737" s="7"/>
-      <c r="G737" s="7"/>
-      <c r="H737" s="7"/>
-      <c r="I737" s="8"/>
-      <c r="J737" s="8"/>
-      <c r="K737" s="7"/>
-      <c r="L737" s="7"/>
-      <c r="M737" s="7"/>
-      <c r="N737" s="7"/>
-      <c r="O737" s="8"/>
-      <c r="P737" s="8"/>
-      <c r="Q737" s="7"/>
-      <c r="R737" s="7"/>
-      <c r="S737" s="7"/>
-      <c r="T737" s="7"/>
-      <c r="U737" s="7"/>
-      <c r="V737" s="7"/>
-      <c r="W737" s="7"/>
-      <c r="X737" s="7"/>
-      <c r="Y737" s="7"/>
-      <c r="Z737" s="7"/>
-    </row>
-    <row r="738" spans="1:26">
-      <c r="A738" s="7"/>
-      <c r="B738" s="7"/>
-      <c r="C738" s="8"/>
-      <c r="D738" s="8"/>
-      <c r="E738" s="7"/>
-      <c r="F738" s="7"/>
-      <c r="G738" s="7"/>
-      <c r="H738" s="7"/>
-      <c r="I738" s="8"/>
-      <c r="J738" s="8"/>
-      <c r="K738" s="7"/>
-      <c r="L738" s="7"/>
-      <c r="M738" s="7"/>
-      <c r="N738" s="7"/>
-      <c r="O738" s="8"/>
-      <c r="P738" s="8"/>
-      <c r="Q738" s="7"/>
-      <c r="R738" s="7"/>
-      <c r="S738" s="7"/>
-      <c r="T738" s="7"/>
-      <c r="U738" s="7"/>
-      <c r="V738" s="7"/>
-      <c r="W738" s="7"/>
-      <c r="X738" s="7"/>
-      <c r="Y738" s="7"/>
-      <c r="Z738" s="7"/>
-    </row>
-    <row r="739" spans="1:26">
-      <c r="A739" s="7"/>
-      <c r="B739" s="7"/>
-      <c r="C739" s="8"/>
-      <c r="D739" s="8"/>
-      <c r="E739" s="7"/>
-      <c r="F739" s="7"/>
-      <c r="G739" s="7"/>
-      <c r="H739" s="7"/>
-      <c r="I739" s="8"/>
-      <c r="J739" s="8"/>
-      <c r="K739" s="7"/>
-      <c r="L739" s="7"/>
-      <c r="M739" s="7"/>
-      <c r="N739" s="7"/>
-      <c r="O739" s="8"/>
-      <c r="P739" s="8"/>
-      <c r="Q739" s="7"/>
-      <c r="R739" s="7"/>
-      <c r="S739" s="7"/>
-      <c r="T739" s="7"/>
-      <c r="U739" s="7"/>
-      <c r="V739" s="7"/>
-      <c r="W739" s="7"/>
-      <c r="X739" s="7"/>
-      <c r="Y739" s="7"/>
-      <c r="Z739" s="7"/>
-    </row>
-    <row r="740" spans="1:26">
-      <c r="A740" s="7"/>
-      <c r="B740" s="7"/>
-      <c r="C740" s="8"/>
-      <c r="D740" s="8"/>
-      <c r="E740" s="7"/>
-      <c r="F740" s="7"/>
-      <c r="G740" s="7"/>
-      <c r="H740" s="7"/>
-      <c r="I740" s="8"/>
-      <c r="J740" s="8"/>
-      <c r="K740" s="7"/>
-      <c r="L740" s="7"/>
-      <c r="M740" s="7"/>
-      <c r="N740" s="7"/>
-      <c r="O740" s="8"/>
-      <c r="P740" s="8"/>
-      <c r="Q740" s="7"/>
-      <c r="R740" s="7"/>
-      <c r="S740" s="7"/>
-      <c r="T740" s="7"/>
-      <c r="U740" s="7"/>
-      <c r="V740" s="7"/>
-      <c r="W740" s="7"/>
-      <c r="X740" s="7"/>
-      <c r="Y740" s="7"/>
-      <c r="Z740" s="7"/>
-    </row>
-    <row r="741" spans="1:26">
-      <c r="A741" s="7"/>
-      <c r="B741" s="7"/>
-      <c r="C741" s="8"/>
-      <c r="D741" s="8"/>
-      <c r="E741" s="7"/>
-      <c r="F741" s="7"/>
-      <c r="G741" s="7"/>
-      <c r="H741" s="7"/>
-      <c r="I741" s="8"/>
-      <c r="J741" s="8"/>
-      <c r="K741" s="7"/>
-      <c r="L741" s="7"/>
-      <c r="M741" s="7"/>
-      <c r="N741" s="7"/>
-      <c r="O741" s="8"/>
-      <c r="P741" s="8"/>
-      <c r="Q741" s="7"/>
-      <c r="R741" s="7"/>
-      <c r="S741" s="7"/>
-      <c r="T741" s="7"/>
-      <c r="U741" s="7"/>
-      <c r="V741" s="7"/>
-      <c r="W741" s="7"/>
-      <c r="X741" s="7"/>
-      <c r="Y741" s="7"/>
-      <c r="Z741" s="7"/>
-    </row>
-    <row r="742" spans="1:26">
-      <c r="A742" s="7"/>
-      <c r="B742" s="7"/>
-      <c r="C742" s="8"/>
-      <c r="D742" s="8"/>
-      <c r="E742" s="7"/>
-      <c r="F742" s="7"/>
-      <c r="G742" s="7"/>
-      <c r="H742" s="7"/>
-      <c r="I742" s="8"/>
-      <c r="J742" s="8"/>
-      <c r="K742" s="7"/>
-      <c r="L742" s="7"/>
-      <c r="M742" s="7"/>
-      <c r="N742" s="7"/>
-      <c r="O742" s="8"/>
-      <c r="P742" s="8"/>
-      <c r="Q742" s="7"/>
-      <c r="R742" s="7"/>
-      <c r="S742" s="7"/>
-      <c r="T742" s="7"/>
-      <c r="U742" s="7"/>
-      <c r="V742" s="7"/>
-      <c r="W742" s="7"/>
-      <c r="X742" s="7"/>
-      <c r="Y742" s="7"/>
-      <c r="Z742" s="7"/>
-    </row>
-    <row r="743" spans="1:26">
-      <c r="A743" s="7"/>
-      <c r="B743" s="7"/>
-      <c r="C743" s="8"/>
-      <c r="D743" s="8"/>
-      <c r="E743" s="7"/>
-      <c r="F743" s="7"/>
-      <c r="G743" s="7"/>
-      <c r="H743" s="7"/>
-      <c r="I743" s="8"/>
-      <c r="J743" s="8"/>
-      <c r="K743" s="7"/>
-      <c r="L743" s="7"/>
-      <c r="M743" s="7"/>
-      <c r="N743" s="7"/>
-      <c r="O743" s="8"/>
-      <c r="P743" s="8"/>
-      <c r="Q743" s="7"/>
-      <c r="R743" s="7"/>
-      <c r="S743" s="7"/>
-      <c r="T743" s="7"/>
-      <c r="U743" s="7"/>
-      <c r="V743" s="7"/>
-      <c r="W743" s="7"/>
-      <c r="X743" s="7"/>
-      <c r="Y743" s="7"/>
-      <c r="Z743" s="7"/>
-    </row>
-    <row r="744" spans="1:26">
-      <c r="A744" s="7"/>
-      <c r="B744" s="7"/>
-      <c r="C744" s="8"/>
-      <c r="D744" s="8"/>
-      <c r="E744" s="7"/>
-      <c r="F744" s="7"/>
-      <c r="G744" s="7"/>
-      <c r="H744" s="7"/>
-      <c r="I744" s="8"/>
-      <c r="J744" s="8"/>
-      <c r="K744" s="7"/>
-      <c r="L744" s="7"/>
-      <c r="M744" s="7"/>
-      <c r="N744" s="7"/>
-      <c r="O744" s="8"/>
-      <c r="P744" s="8"/>
-      <c r="Q744" s="7"/>
-      <c r="R744" s="7"/>
-      <c r="S744" s="7"/>
-      <c r="T744" s="7"/>
-      <c r="U744" s="7"/>
-      <c r="V744" s="7"/>
-      <c r="W744" s="7"/>
-      <c r="X744" s="7"/>
-      <c r="Y744" s="7"/>
-      <c r="Z744" s="7"/>
-    </row>
-    <row r="745" spans="1:26">
-      <c r="A745" s="7"/>
-      <c r="B745" s="7"/>
-      <c r="C745" s="8"/>
-      <c r="D745" s="8"/>
-      <c r="E745" s="7"/>
-      <c r="F745" s="7"/>
-      <c r="G745" s="7"/>
-      <c r="H745" s="7"/>
-      <c r="I745" s="8"/>
-      <c r="J745" s="8"/>
-      <c r="K745" s="7"/>
-      <c r="L745" s="7"/>
-      <c r="M745" s="7"/>
-      <c r="N745" s="7"/>
-      <c r="O745" s="8"/>
-      <c r="P745" s="8"/>
-      <c r="Q745" s="7"/>
-      <c r="R745" s="7"/>
-      <c r="S745" s="7"/>
-      <c r="T745" s="7"/>
-      <c r="U745" s="7"/>
-      <c r="V745" s="7"/>
-      <c r="W745" s="7"/>
-      <c r="X745" s="7"/>
-      <c r="Y745" s="7"/>
-      <c r="Z745" s="7"/>
-    </row>
-    <row r="746" spans="1:26">
-      <c r="A746" s="7"/>
-      <c r="B746" s="7"/>
-      <c r="C746" s="8"/>
-      <c r="D746" s="8"/>
-      <c r="E746" s="7"/>
-      <c r="F746" s="7"/>
-      <c r="G746" s="7"/>
-      <c r="H746" s="7"/>
-      <c r="I746" s="8"/>
-      <c r="J746" s="8"/>
-      <c r="K746" s="7"/>
-      <c r="L746" s="7"/>
-      <c r="M746" s="7"/>
-      <c r="N746" s="7"/>
-      <c r="O746" s="8"/>
-      <c r="P746" s="8"/>
-      <c r="Q746" s="7"/>
-      <c r="R746" s="7"/>
-      <c r="S746" s="7"/>
-      <c r="T746" s="7"/>
-      <c r="U746" s="7"/>
-      <c r="V746" s="7"/>
-      <c r="W746" s="7"/>
-      <c r="X746" s="7"/>
-      <c r="Y746" s="7"/>
-      <c r="Z746" s="7"/>
-    </row>
-    <row r="747" spans="1:26">
-      <c r="A747" s="7"/>
-      <c r="B747" s="7"/>
-      <c r="C747" s="8"/>
-      <c r="D747" s="8"/>
-      <c r="E747" s="7"/>
-      <c r="F747" s="7"/>
-      <c r="G747" s="7"/>
-      <c r="H747" s="7"/>
-      <c r="I747" s="8"/>
-      <c r="J747" s="8"/>
-      <c r="K747" s="7"/>
-      <c r="L747" s="7"/>
-      <c r="M747" s="7"/>
-      <c r="N747" s="7"/>
-      <c r="O747" s="8"/>
-      <c r="P747" s="8"/>
-      <c r="Q747" s="7"/>
-      <c r="R747" s="7"/>
-      <c r="S747" s="7"/>
-      <c r="T747" s="7"/>
-      <c r="U747" s="7"/>
-      <c r="V747" s="7"/>
-      <c r="W747" s="7"/>
-      <c r="X747" s="7"/>
-      <c r="Y747" s="7"/>
-      <c r="Z747" s="7"/>
-    </row>
-    <row r="748" spans="1:26">
-      <c r="A748" s="7"/>
-      <c r="B748" s="7"/>
-      <c r="C748" s="8"/>
-      <c r="D748" s="8"/>
-      <c r="E748" s="7"/>
-      <c r="F748" s="7"/>
-      <c r="G748" s="7"/>
-      <c r="H748" s="7"/>
-      <c r="I748" s="8"/>
-      <c r="J748" s="8"/>
-      <c r="K748" s="7"/>
-      <c r="L748" s="7"/>
-      <c r="M748" s="7"/>
-      <c r="N748" s="7"/>
-      <c r="O748" s="8"/>
-      <c r="P748" s="8"/>
-      <c r="Q748" s="7"/>
-      <c r="R748" s="7"/>
-      <c r="S748" s="7"/>
-      <c r="T748" s="7"/>
-      <c r="U748" s="7"/>
-      <c r="V748" s="7"/>
-      <c r="W748" s="7"/>
-      <c r="X748" s="7"/>
-      <c r="Y748" s="7"/>
-      <c r="Z748" s="7"/>
-    </row>
-    <row r="749" spans="1:26" ht="16">
-      <c r="A749" s="7"/>
-      <c r="B749" s="7"/>
-      <c r="C749" s="8"/>
-      <c r="D749" s="8"/>
-      <c r="E749" s="7"/>
-      <c r="F749" s="7"/>
-      <c r="G749" s="7"/>
-      <c r="H749" s="7"/>
-      <c r="I749" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J749" s="8"/>
-      <c r="K749" s="7"/>
-      <c r="L749" s="7"/>
-      <c r="M749" s="7"/>
-      <c r="N749" s="7"/>
-      <c r="O749" s="8"/>
-      <c r="P749" s="8"/>
-      <c r="Q749" s="7"/>
-      <c r="R749" s="7"/>
-      <c r="S749" s="7"/>
-      <c r="T749" s="7"/>
-      <c r="U749" s="7"/>
-      <c r="V749" s="7"/>
-      <c r="W749" s="7"/>
-      <c r="X749" s="7"/>
-      <c r="Y749" s="7"/>
-      <c r="Z749" s="7"/>
-    </row>
-    <row r="750" spans="1:26" ht="16">
-      <c r="A750" s="7"/>
-      <c r="B750" s="7"/>
-      <c r="C750" s="8"/>
-      <c r="D750" s="8"/>
-      <c r="E750" s="7"/>
-      <c r="F750" s="7"/>
-      <c r="G750" s="7"/>
-      <c r="H750" s="7"/>
-      <c r="I750" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J750" s="8"/>
-      <c r="K750" s="7"/>
-      <c r="L750" s="7"/>
-      <c r="M750" s="7"/>
-      <c r="N750" s="7"/>
-      <c r="O750" s="8"/>
-      <c r="P750" s="8"/>
-      <c r="Q750" s="7"/>
-      <c r="R750" s="7"/>
-      <c r="S750" s="7"/>
-      <c r="T750" s="7"/>
-      <c r="U750" s="7"/>
-      <c r="V750" s="7"/>
-      <c r="W750" s="7"/>
-      <c r="X750" s="7"/>
-      <c r="Y750" s="7"/>
-      <c r="Z750" s="7"/>
-    </row>
-    <row r="751" spans="1:26" ht="16">
-      <c r="A751" s="7"/>
-      <c r="B751" s="7"/>
-      <c r="C751" s="8"/>
-      <c r="D751" s="8"/>
-      <c r="E751" s="7"/>
-      <c r="F751" s="7"/>
-      <c r="G751" s="7"/>
-      <c r="H751" s="7"/>
-      <c r="I751" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J751" s="8"/>
-      <c r="K751" s="7"/>
-      <c r="L751" s="7"/>
-      <c r="M751" s="7"/>
-      <c r="N751" s="7"/>
-      <c r="O751" s="8"/>
-      <c r="P751" s="8"/>
-      <c r="Q751" s="7"/>
-      <c r="R751" s="7"/>
-      <c r="S751" s="7"/>
-      <c r="T751" s="7"/>
-      <c r="U751" s="7"/>
-      <c r="V751" s="7"/>
-      <c r="W751" s="7"/>
-      <c r="X751" s="7"/>
-      <c r="Y751" s="7"/>
-      <c r="Z751" s="7"/>
-    </row>
-    <row r="752" spans="1:26" ht="16">
-      <c r="A752" s="7"/>
-      <c r="B752" s="7"/>
-      <c r="C752" s="8"/>
-      <c r="D752" s="8"/>
-      <c r="E752" s="7"/>
-      <c r="F752" s="7"/>
-      <c r="G752" s="7"/>
-      <c r="H752" s="7"/>
-      <c r="I752" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J752" s="8"/>
-      <c r="K752" s="7"/>
-      <c r="L752" s="7"/>
-      <c r="M752" s="7"/>
-      <c r="N752" s="7"/>
-      <c r="O752" s="8"/>
-      <c r="P752" s="8"/>
-      <c r="Q752" s="7"/>
-      <c r="R752" s="7"/>
-      <c r="S752" s="7"/>
-      <c r="T752" s="7"/>
-      <c r="U752" s="7"/>
-      <c r="V752" s="7"/>
-      <c r="W752" s="7"/>
-      <c r="X752" s="7"/>
-      <c r="Y752" s="7"/>
-      <c r="Z752" s="7"/>
-    </row>
-    <row r="753" spans="1:26" ht="16">
-      <c r="A753" s="7"/>
-      <c r="B753" s="7"/>
-      <c r="C753" s="8"/>
-      <c r="D753" s="8"/>
-      <c r="E753" s="7"/>
-      <c r="F753" s="7"/>
-      <c r="G753" s="7"/>
-      <c r="H753" s="7"/>
-      <c r="I753" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J753" s="8"/>
-      <c r="K753" s="7"/>
-      <c r="L753" s="7"/>
-      <c r="M753" s="7"/>
-      <c r="N753" s="7"/>
-      <c r="O753" s="8"/>
-      <c r="P753" s="8"/>
-      <c r="Q753" s="7"/>
-      <c r="R753" s="7"/>
-      <c r="S753" s="7"/>
-      <c r="T753" s="7"/>
-      <c r="U753" s="7"/>
-      <c r="V753" s="7"/>
-      <c r="W753" s="7"/>
-      <c r="X753" s="7"/>
-      <c r="Y753" s="7"/>
-      <c r="Z753" s="7"/>
-    </row>
-    <row r="754" spans="1:26" ht="16">
-      <c r="A754" s="7"/>
-      <c r="B754" s="7"/>
-      <c r="C754" s="8"/>
-      <c r="D754" s="8"/>
-      <c r="E754" s="7"/>
-      <c r="F754" s="7"/>
-      <c r="G754" s="7"/>
-      <c r="H754" s="7"/>
-      <c r="I754" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J754" s="8"/>
-      <c r="K754" s="7"/>
-      <c r="L754" s="7"/>
-      <c r="M754" s="7"/>
-      <c r="N754" s="7"/>
-      <c r="O754" s="8"/>
-      <c r="P754" s="8"/>
-      <c r="Q754" s="7"/>
-      <c r="R754" s="7"/>
-      <c r="S754" s="7"/>
-      <c r="T754" s="7"/>
-      <c r="U754" s="7"/>
-      <c r="V754" s="7"/>
-      <c r="W754" s="7"/>
-      <c r="X754" s="7"/>
-      <c r="Y754" s="7"/>
-      <c r="Z754" s="7"/>
-    </row>
-    <row r="755" spans="1:26" ht="16">
-      <c r="A755" s="7"/>
-      <c r="B755" s="7"/>
-      <c r="C755" s="8"/>
-      <c r="D755" s="8"/>
-      <c r="E755" s="7"/>
-      <c r="F755" s="7"/>
-      <c r="G755" s="7"/>
-      <c r="H755" s="7"/>
-      <c r="I755" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J755" s="8"/>
-      <c r="K755" s="7"/>
-      <c r="L755" s="7"/>
-      <c r="M755" s="7"/>
-      <c r="N755" s="7"/>
-      <c r="O755" s="8"/>
-      <c r="P755" s="8"/>
-      <c r="Q755" s="7"/>
-      <c r="R755" s="7"/>
-      <c r="S755" s="7"/>
-      <c r="T755" s="7"/>
-      <c r="U755" s="7"/>
-      <c r="V755" s="7"/>
-      <c r="W755" s="7"/>
-      <c r="X755" s="7"/>
-      <c r="Y755" s="7"/>
-      <c r="Z755" s="7"/>
-    </row>
-    <row r="756" spans="1:26" ht="16">
-      <c r="A756" s="7"/>
-      <c r="B756" s="7"/>
-      <c r="C756" s="8"/>
-      <c r="D756" s="8"/>
-      <c r="E756" s="7"/>
-      <c r="F756" s="7"/>
-      <c r="G756" s="7"/>
-      <c r="H756" s="7"/>
-      <c r="I756" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J756" s="8"/>
-      <c r="K756" s="7"/>
-      <c r="L756" s="7"/>
-      <c r="M756" s="7"/>
-      <c r="N756" s="7"/>
-      <c r="O756" s="8"/>
-      <c r="P756" s="8"/>
-      <c r="Q756" s="7"/>
-      <c r="R756" s="7"/>
-      <c r="S756" s="7"/>
-      <c r="T756" s="7"/>
-      <c r="U756" s="7"/>
-      <c r="V756" s="7"/>
-      <c r="W756" s="7"/>
-      <c r="X756" s="7"/>
-      <c r="Y756" s="7"/>
-      <c r="Z756" s="7"/>
-    </row>
-    <row r="757" spans="1:26" ht="16">
-      <c r="A757" s="7"/>
-      <c r="B757" s="7"/>
-      <c r="C757" s="8"/>
-      <c r="D757" s="8"/>
-      <c r="E757" s="7"/>
-      <c r="F757" s="7"/>
-      <c r="G757" s="7"/>
-      <c r="H757" s="7"/>
-      <c r="I757" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J757" s="8"/>
-      <c r="K757" s="7"/>
-      <c r="L757" s="7"/>
-      <c r="M757" s="7"/>
-      <c r="N757" s="7"/>
-      <c r="O757" s="8"/>
-      <c r="P757" s="8"/>
-      <c r="Q757" s="7"/>
-      <c r="R757" s="7"/>
-      <c r="S757" s="7"/>
-      <c r="T757" s="7"/>
-      <c r="U757" s="7"/>
-      <c r="V757" s="7"/>
-      <c r="W757" s="7"/>
-      <c r="X757" s="7"/>
-      <c r="Y757" s="7"/>
-      <c r="Z757" s="7"/>
-    </row>
-    <row r="758" spans="1:26" ht="16">
-      <c r="A758" s="7"/>
-      <c r="B758" s="7"/>
-      <c r="C758" s="8"/>
-      <c r="D758" s="8"/>
-      <c r="E758" s="7"/>
-      <c r="F758" s="7"/>
-      <c r="G758" s="7"/>
-      <c r="H758" s="7"/>
-      <c r="I758" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J758" s="8"/>
-      <c r="K758" s="7"/>
-      <c r="L758" s="7"/>
-      <c r="M758" s="7"/>
-      <c r="N758" s="7"/>
-      <c r="O758" s="8"/>
-      <c r="P758" s="8"/>
-      <c r="Q758" s="7"/>
-      <c r="R758" s="7"/>
-      <c r="S758" s="7"/>
-      <c r="T758" s="7"/>
-      <c r="U758" s="7"/>
-      <c r="V758" s="7"/>
-      <c r="W758" s="7"/>
-      <c r="X758" s="7"/>
-      <c r="Y758" s="7"/>
-      <c r="Z758" s="7"/>
-    </row>
-    <row r="759" spans="1:26" ht="16">
-      <c r="A759" s="7"/>
-      <c r="B759" s="7"/>
-      <c r="C759" s="8"/>
-      <c r="D759" s="8"/>
-      <c r="E759" s="7"/>
-      <c r="F759" s="7"/>
-      <c r="G759" s="7"/>
-      <c r="H759" s="7"/>
-      <c r="I759" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J759" s="8"/>
-      <c r="K759" s="7"/>
-      <c r="L759" s="7"/>
-      <c r="M759" s="7"/>
-      <c r="N759" s="7"/>
-      <c r="O759" s="8"/>
-      <c r="P759" s="8"/>
-      <c r="Q759" s="7"/>
-      <c r="R759" s="7"/>
-      <c r="S759" s="7"/>
-      <c r="T759" s="7"/>
-      <c r="U759" s="7"/>
-      <c r="V759" s="7"/>
-      <c r="W759" s="7"/>
-      <c r="X759" s="7"/>
-      <c r="Y759" s="7"/>
-      <c r="Z759" s="7"/>
-    </row>
-    <row r="760" spans="1:26" ht="16">
-      <c r="A760" s="7"/>
-      <c r="B760" s="7"/>
-      <c r="C760" s="8"/>
-      <c r="D760" s="8"/>
-      <c r="E760" s="7"/>
-      <c r="F760" s="7"/>
-      <c r="G760" s="7"/>
-      <c r="H760" s="7"/>
-      <c r="I760" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J760" s="8"/>
-      <c r="K760" s="7"/>
-      <c r="L760" s="7"/>
-      <c r="M760" s="7"/>
-      <c r="N760" s="7"/>
-      <c r="O760" s="8"/>
-      <c r="P760" s="8"/>
-      <c r="Q760" s="7"/>
-      <c r="R760" s="7"/>
-      <c r="S760" s="7"/>
-      <c r="T760" s="7"/>
-      <c r="U760" s="7"/>
-      <c r="V760" s="7"/>
-      <c r="W760" s="7"/>
-      <c r="X760" s="7"/>
-      <c r="Y760" s="7"/>
-      <c r="Z760" s="7"/>
-    </row>
-    <row r="761" spans="1:26" ht="16">
-      <c r="A761" s="7"/>
-      <c r="B761" s="7"/>
-      <c r="C761" s="8"/>
-      <c r="D761" s="8"/>
-      <c r="E761" s="7"/>
-      <c r="F761" s="7"/>
-      <c r="G761" s="7"/>
-      <c r="H761" s="7"/>
-      <c r="I761" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J761" s="8"/>
-      <c r="K761" s="7"/>
-      <c r="L761" s="7"/>
-      <c r="M761" s="7"/>
-      <c r="N761" s="7"/>
-      <c r="O761" s="8"/>
-      <c r="P761" s="8"/>
-      <c r="Q761" s="7"/>
-      <c r="R761" s="7"/>
-      <c r="S761" s="7"/>
-      <c r="T761" s="7"/>
-      <c r="U761" s="7"/>
-      <c r="V761" s="7"/>
-      <c r="W761" s="7"/>
-      <c r="X761" s="7"/>
-      <c r="Y761" s="7"/>
-      <c r="Z761" s="7"/>
-    </row>
-    <row r="762" spans="1:26" ht="16">
-      <c r="A762" s="7"/>
-      <c r="B762" s="7"/>
-      <c r="C762" s="8"/>
-      <c r="D762" s="8"/>
-      <c r="E762" s="7"/>
-      <c r="F762" s="7"/>
-      <c r="G762" s="7"/>
-      <c r="H762" s="7"/>
-      <c r="I762" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J762" s="8"/>
-      <c r="K762" s="7"/>
-      <c r="L762" s="7"/>
-      <c r="M762" s="7"/>
-      <c r="N762" s="7"/>
-      <c r="O762" s="8"/>
-      <c r="P762" s="8"/>
-      <c r="Q762" s="7"/>
-      <c r="R762" s="7"/>
-      <c r="S762" s="7"/>
-      <c r="T762" s="7"/>
-      <c r="U762" s="7"/>
-      <c r="V762" s="7"/>
-      <c r="W762" s="7"/>
-      <c r="X762" s="7"/>
-      <c r="Y762" s="7"/>
-      <c r="Z762" s="7"/>
-    </row>
-    <row r="763" spans="1:26" ht="16">
-      <c r="A763" s="7"/>
-      <c r="B763" s="7"/>
-      <c r="C763" s="8"/>
-      <c r="D763" s="8"/>
-      <c r="E763" s="7"/>
-      <c r="F763" s="7"/>
-      <c r="G763" s="7"/>
-      <c r="H763" s="7"/>
-      <c r="I763" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J763" s="8"/>
-      <c r="K763" s="7"/>
-      <c r="L763" s="7"/>
-      <c r="M763" s="7"/>
-      <c r="N763" s="7"/>
-      <c r="O763" s="8"/>
-      <c r="P763" s="8"/>
-      <c r="Q763" s="7"/>
-      <c r="R763" s="7"/>
-      <c r="S763" s="7"/>
-      <c r="T763" s="7"/>
-      <c r="U763" s="7"/>
-      <c r="V763" s="7"/>
-      <c r="W763" s="7"/>
-      <c r="X763" s="7"/>
-      <c r="Y763" s="7"/>
-      <c r="Z763" s="7"/>
-    </row>
-    <row r="764" spans="1:26" ht="16">
-      <c r="A764" s="7"/>
-      <c r="B764" s="7"/>
-      <c r="C764" s="8"/>
-      <c r="D764" s="8"/>
-      <c r="E764" s="7"/>
-      <c r="F764" s="7"/>
-      <c r="G764" s="7"/>
-      <c r="H764" s="7"/>
-      <c r="I764" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J764" s="8"/>
-      <c r="K764" s="7"/>
-      <c r="L764" s="7"/>
-      <c r="M764" s="7"/>
-      <c r="N764" s="7"/>
-      <c r="O764" s="8"/>
-      <c r="P764" s="8"/>
-      <c r="Q764" s="7"/>
-      <c r="R764" s="7"/>
-      <c r="S764" s="7"/>
-      <c r="T764" s="7"/>
-      <c r="U764" s="7"/>
-      <c r="V764" s="7"/>
-      <c r="W764" s="7"/>
-      <c r="X764" s="7"/>
-      <c r="Y764" s="7"/>
-      <c r="Z764" s="7"/>
-    </row>
-    <row r="765" spans="1:26" ht="16">
-      <c r="A765" s="7"/>
-      <c r="B765" s="7"/>
-      <c r="C765" s="8"/>
-      <c r="D765" s="8"/>
-      <c r="E765" s="7"/>
-      <c r="F765" s="7"/>
-      <c r="G765" s="7"/>
-      <c r="H765" s="7"/>
-      <c r="I765" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J765" s="8"/>
-      <c r="K765" s="7"/>
-      <c r="L765" s="7"/>
-      <c r="M765" s="7"/>
-      <c r="N765" s="7"/>
-      <c r="O765" s="8"/>
-      <c r="P765" s="8"/>
-      <c r="Q765" s="7"/>
-      <c r="R765" s="7"/>
-      <c r="S765" s="7"/>
-      <c r="T765" s="7"/>
-      <c r="U765" s="7"/>
-      <c r="V765" s="7"/>
-      <c r="W765" s="7"/>
-      <c r="X765" s="7"/>
-      <c r="Y765" s="7"/>
-      <c r="Z765" s="7"/>
-    </row>
-    <row r="766" spans="1:26" ht="16">
-      <c r="A766" s="7"/>
-      <c r="B766" s="7"/>
-      <c r="C766" s="8"/>
-      <c r="D766" s="8"/>
-      <c r="E766" s="7"/>
-      <c r="F766" s="7"/>
-      <c r="G766" s="7"/>
-      <c r="H766" s="7"/>
-      <c r="I766" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J766" s="8"/>
-      <c r="K766" s="7"/>
-      <c r="L766" s="7"/>
-      <c r="M766" s="7"/>
-      <c r="N766" s="7"/>
-      <c r="O766" s="8"/>
-      <c r="P766" s="8"/>
-      <c r="Q766" s="7"/>
-      <c r="R766" s="7"/>
-      <c r="S766" s="7"/>
-      <c r="T766" s="7"/>
-      <c r="U766" s="7"/>
-      <c r="V766" s="7"/>
-      <c r="W766" s="7"/>
-      <c r="X766" s="7"/>
-      <c r="Y766" s="7"/>
-      <c r="Z766" s="7"/>
-    </row>
-    <row r="767" spans="1:26" ht="16">
-      <c r="A767" s="7"/>
-      <c r="B767" s="7"/>
-      <c r="C767" s="8"/>
-      <c r="D767" s="8"/>
-      <c r="E767" s="7"/>
-      <c r="F767" s="7"/>
-      <c r="G767" s="7"/>
-      <c r="H767" s="7"/>
-      <c r="I767" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J767" s="8"/>
-      <c r="K767" s="7"/>
-      <c r="L767" s="7"/>
-      <c r="M767" s="7"/>
-      <c r="N767" s="7"/>
-      <c r="O767" s="8"/>
-      <c r="P767" s="8"/>
-      <c r="Q767" s="7"/>
-      <c r="R767" s="7"/>
-      <c r="S767" s="7"/>
-      <c r="T767" s="7"/>
-      <c r="U767" s="7"/>
-      <c r="V767" s="7"/>
-      <c r="W767" s="7"/>
-      <c r="X767" s="7"/>
-      <c r="Y767" s="7"/>
-      <c r="Z767" s="7"/>
-    </row>
-    <row r="768" spans="1:26" ht="16">
-      <c r="A768" s="7"/>
-      <c r="B768" s="7"/>
-      <c r="C768" s="8"/>
-      <c r="D768" s="8"/>
-      <c r="E768" s="7"/>
-      <c r="F768" s="7"/>
-      <c r="G768" s="7"/>
-      <c r="H768" s="7"/>
-      <c r="I768" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J768" s="8"/>
-      <c r="K768" s="7"/>
-      <c r="L768" s="7"/>
-      <c r="M768" s="7"/>
-      <c r="N768" s="7"/>
-      <c r="O768" s="8"/>
-      <c r="P768" s="8"/>
-      <c r="Q768" s="7"/>
-      <c r="R768" s="7"/>
-      <c r="S768" s="7"/>
-      <c r="T768" s="7"/>
-      <c r="U768" s="7"/>
-      <c r="V768" s="7"/>
-      <c r="W768" s="7"/>
-      <c r="X768" s="7"/>
-      <c r="Y768" s="7"/>
-      <c r="Z768" s="7"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:BE397" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
